--- a/AAII_Financials/Quarterly/CPRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPRI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/CPRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPRI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>CPRI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,218 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43463</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43099</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>451000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1192000</v>
+      </c>
+      <c r="F8" s="3">
         <v>1571000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1442000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1346000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1343700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1438000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1253800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1202500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1179500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1440100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1146600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>952400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1064800</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>149000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>561000</v>
+      </c>
+      <c r="F9" s="3">
         <v>639000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>568000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>512000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>550800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>564800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>490700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>451700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>469700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>556100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>455800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>377700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>445100</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>302000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>631000</v>
+      </c>
+      <c r="F10" s="3">
         <v>932000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>874000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>834000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>792900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>873200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>763100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>750800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>709800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>884000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>690800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>574700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>619700</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -866,8 +892,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,8 +935,14 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,90 +982,108 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>34000</v>
+        <v>8000</v>
       </c>
       <c r="E14" s="3">
-        <v>111000</v>
+        <v>493000</v>
       </c>
       <c r="F14" s="3">
+        <v>27000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>110000</v>
+      </c>
+      <c r="H14" s="3">
         <v>112000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>78600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>25600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>25200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>15600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>64600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>30600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>39600</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>193800</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>61000</v>
+      </c>
+      <c r="F15" s="3">
         <v>63000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>65000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>60000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>64900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>51500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>52700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>55900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>58700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>54000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>48300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>47600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,90 +1096,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>613000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1728000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1366000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1367000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1282000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1303300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1148000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1064400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>987300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1092400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1126600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>947500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>803000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1107400</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-162000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-536000</v>
+      </c>
+      <c r="F18" s="3">
         <v>205000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>75000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>64000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>40400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>290000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>189400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>215200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>87100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>313500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>199100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>149400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-42600</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,213 +1209,245 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F20" s="3">
         <v>3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-3000</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-41200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-31500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-26900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>40800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-479000</v>
+      </c>
+      <c r="F21" s="3">
         <v>271000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>137000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>124000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>104100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>300300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>210600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>269000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>145100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>340600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>288200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>198800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3">
         <v>3000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>3000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>13000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>16900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>7700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>5900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>7500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>12100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>8300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>1100</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-175000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-540000</v>
+      </c>
+      <c r="F23" s="3">
         <v>205000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>69000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>51000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>22300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>241100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>152000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>205600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>74300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>278300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>239100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>150100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-41300</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F24" s="3">
         <v>-4000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-4000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>6000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>3000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>41700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>14900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>19400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>21000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>46500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>36400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>24600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-14500</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,90 +1487,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-180000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-552000</v>
+      </c>
+      <c r="F26" s="3">
         <v>209000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>73000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>45000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>19300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>199400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>137100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>186200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>53300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>231800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>202700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>125500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-180000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-551000</v>
+      </c>
+      <c r="F27" s="3">
         <v>210000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>73000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>45000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>19400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>199600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>137600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>186400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>52900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>231800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>202900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>125500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1628,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1538,23 +1660,29 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>-8800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-12400</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1722,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,90 +1769,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>3000</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>41200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>31500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>26900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-40800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-180000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-551000</v>
+      </c>
+      <c r="F33" s="3">
         <v>210000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>73000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>45000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>19400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>199600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>137600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>186400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>44100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>219400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>202900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>125500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,95 +1910,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-180000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-551000</v>
+      </c>
+      <c r="F35" s="3">
         <v>210000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>73000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>45000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>19400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>199600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>137600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>186400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>44100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>219400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>202900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>125500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43463</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43099</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +2032,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,49 +2051,57 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>592000</v>
+      </c>
+      <c r="F41" s="3">
         <v>237000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>179000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>160000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>172000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>264500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>155200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>169900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>163100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>317100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>178200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>273700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>227700</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1961,172 +2141,202 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>195000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>308000</v>
+      </c>
+      <c r="F43" s="3">
         <v>321000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>368000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>310000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>392000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>302100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>352100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>273600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>299900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>297500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>283600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>182300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>277800</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>948000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>827000</v>
+      </c>
+      <c r="F44" s="3">
         <v>960000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1073000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1016000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>953000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>764700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>767600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>697000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>660700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>677200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>696500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>616100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>549300</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>139000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>167000</v>
+      </c>
+      <c r="F45" s="3">
         <v>263000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>275000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>224000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>212000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2108200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>199200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>153700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>138400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>152800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>172400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>112900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1489000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1894000</v>
+      </c>
+      <c r="F46" s="3">
         <v>1781000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1895000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1710000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1729000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3439500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1474100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1294200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1262100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1444600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1330700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1185000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1164700</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2166,90 +2376,108 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2182000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2186000</v>
+      </c>
+      <c r="F48" s="3">
         <v>2261000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2260000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2326000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>615000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>543600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>552000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>560700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>583200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>599400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>562700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>585500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>591500</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3467000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3474000</v>
+      </c>
+      <c r="F49" s="3">
         <v>3906000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>3769000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>3902000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>3952000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1912900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1955500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1984300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2083400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2037400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>525400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>534000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>537800</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2517,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,49 +2564,61 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>395000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>392000</v>
+      </c>
+      <c r="F52" s="3">
         <v>377000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>469000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>370000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>354000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>132400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>125700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>121600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>130300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>135400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>112900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>108500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,49 +2658,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7533000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>7946000</v>
+      </c>
+      <c r="F54" s="3">
         <v>8325000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>8393000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>8308000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>6650000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>6028400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4107300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3960800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4059000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4216800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2531700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2413000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2409600</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2728,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,254 +2747,292 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>596000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>428000</v>
+      </c>
+      <c r="F57" s="3">
         <v>375000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>390000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>355000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>371000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>329000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>290500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>279300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>294100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>290200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>174000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>153400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>176300</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>191000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>167000</v>
+      </c>
+      <c r="F58" s="3">
         <v>1031000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>603000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>514000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>630000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>579400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>255000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>266900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>200000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>155800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>802000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>806000</v>
+      </c>
+      <c r="F59" s="3">
         <v>899000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>810000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>799000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>541000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>479000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>452400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>399500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>466200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>431800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>300700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>271800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1589000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1401000</v>
+      </c>
+      <c r="F60" s="3">
         <v>2305000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1803000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1668000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1542000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1387400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>997900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>945700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>960300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>722100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>474700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>581000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>565800</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1577000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2012000</v>
+      </c>
+      <c r="F61" s="3">
         <v>1085000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1796000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1917000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1936000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1954700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>504600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>554200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>674400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>992400</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2360000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2365000</v>
+      </c>
+      <c r="F62" s="3">
         <v>2324000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2382000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2395000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>736000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>419200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>421500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>419400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>402800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>422000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>251800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>250700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>248800</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +3072,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +3119,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,49 +3166,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5527000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5779000</v>
+      </c>
+      <c r="F66" s="3">
         <v>5716000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5988000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5987000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4221000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3764700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1927600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1922900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2041300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2139900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>726700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>832100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>817000</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3236,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3279,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3326,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3037,8 +3373,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,49 +3420,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4152000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>4332000</v>
+      </c>
+      <c r="F72" s="3">
         <v>4883000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>4673000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>4600000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>4707000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>4687300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>4487700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>4350100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>4152000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>4107900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>3888500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>3685600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>3560300</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3514,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3561,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,49 +3608,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2006000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2167000</v>
+      </c>
+      <c r="F76" s="3">
         <v>2609000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2405000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2321000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2429000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2263700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2179700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2037900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2017700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2076900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1805000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1580900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1592600</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,95 +3702,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43463</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43099</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-180000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-551000</v>
+      </c>
+      <c r="F81" s="3">
         <v>210000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>73000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>45000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>19400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>199600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>137600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>186400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>44100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>219400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>202900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>125500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,49 +3824,57 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>61000</v>
+      </c>
+      <c r="F83" s="3">
         <v>63000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>65000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>60000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>64900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>51500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>52700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>55900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>58700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>54000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>48300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>47600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3914,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3961,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +4008,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +4055,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,49 +4102,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>107000</v>
+      </c>
+      <c r="F89" s="3">
         <v>509000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>85000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>158000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-81700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>512000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>57400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>206300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>189200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>544200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>134800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>194300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>147500</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,49 +4172,57 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-59000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="G91" s="3">
         <v>-51000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-54000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-46300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-44900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-49100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-40700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-36600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-25900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-43100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-14800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4262,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,49 +4309,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>195000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-58000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-43000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-32000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1909400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-153700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-21200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-40700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-36600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1400800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-79800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-16200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4379,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4422,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4469,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4516,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,127 +4563,151 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-420000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>57000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-397000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-19000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-138000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-20700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1673700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-48700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-153300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-311400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>992100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-153400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-137700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-265400</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>-4000</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G101" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-1400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-2200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-5500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>4800</v>
-      </c>
-      <c r="L101" s="3">
-        <v>3700</v>
-      </c>
-      <c r="M101" s="3">
-        <v>2900</v>
       </c>
       <c r="N101" s="3">
         <v>3700</v>
       </c>
       <c r="O101" s="3">
+        <v>2900</v>
+      </c>
+      <c r="P101" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Q101" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-385000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>355000</v>
+      </c>
+      <c r="F102" s="3">
         <v>58000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>19000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-12000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-2013700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2030600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-14700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>6800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-154000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>139200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-95500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>44100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-139200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CPRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPRI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>CPRI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43099</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1110000</v>
+      </c>
+      <c r="E8" s="3">
         <v>451000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1192000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1571000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1442000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1346000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1343700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1438000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1253800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1202500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1179500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1440100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1146600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>952400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1064800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>400000</v>
+      </c>
+      <c r="E9" s="3">
         <v>149000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>561000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>639000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>568000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>512000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>550800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>564800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>490700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>451700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>469700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>556100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>455800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>377700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>445100</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>710000</v>
+      </c>
+      <c r="E10" s="3">
         <v>302000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>631000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>932000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>874000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>834000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>792900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>873200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>763100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>750800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>709800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>884000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>690800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>574700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>619700</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,55 +1005,61 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>8000</v>
+        <v>38000</v>
       </c>
       <c r="E14" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F14" s="3">
         <v>493000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>27000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>110000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>112000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>78600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>25600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>25200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>15600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>64600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>30600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>39600</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>193800</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1044,46 +1067,49 @@
         <v>54000</v>
       </c>
       <c r="E15" s="3">
+        <v>54000</v>
+      </c>
+      <c r="F15" s="3">
         <v>61000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>63000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>65000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>60000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>64900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>51500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>52700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>55900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>58700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>54000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>48300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>47600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>957000</v>
+      </c>
+      <c r="E17" s="3">
         <v>613000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1728000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1366000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1367000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1282000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1303300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1148000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1064400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>987300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1092400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1126600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>947500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>803000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1107400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-162000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-536000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>205000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>75000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>64000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>40400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>290000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>189400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>215200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>87100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>313500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>199100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>149400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-42600</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,243 +1244,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>4000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3000</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-41200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-31500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-26900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>40800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-104000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-479000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>271000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>137000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>124000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>104100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>300300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>210600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>269000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>145100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>340600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>288200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>198800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E22" s="3">
         <v>17000</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="F22" s="3">
-        <v>3000</v>
       </c>
       <c r="G22" s="3">
         <v>3000</v>
       </c>
       <c r="H22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I22" s="3">
         <v>13000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>16900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>12100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1100</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>141000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-175000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-540000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>205000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>69000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>51000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>22300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>241100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>152000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>205600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>74300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>278300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>239100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>150100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-41300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E24" s="3">
         <v>5000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>12000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-4000</v>
       </c>
       <c r="G24" s="3">
         <v>-4000</v>
       </c>
       <c r="H24" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="I24" s="3">
         <v>6000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>41700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>19400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>21000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>46500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>36400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>24600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-14500</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-180000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-552000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>209000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>73000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>45000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>19300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>199400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>137100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>186200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>53300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>231800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>202700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>125500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-180000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-551000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>210000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>73000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>45000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>19400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>199600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>137600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>186400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>52900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>231800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>202900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>125500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1666,14 +1727,14 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-8800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-12400</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3000</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>41200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>31500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>26900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-40800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-180000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-551000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>210000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>73000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>45000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>19400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>199600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>137600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>186400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>44100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>219400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>202900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>125500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-180000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-551000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>210000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>73000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>45000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>19400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>199600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>137600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>186400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>44100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>219400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>202900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>125500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43099</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E41" s="3">
         <v>207000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>592000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>237000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>179000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>160000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>172000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>264500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>155200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>169900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>163100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>317100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>178200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>273700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>227700</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,196 +2237,211 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>352000</v>
+      </c>
+      <c r="E43" s="3">
         <v>195000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>308000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>321000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>368000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>310000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>392000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>302100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>352100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>273600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>299900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>297500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>283600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>182300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>277800</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>930000</v>
+      </c>
+      <c r="E44" s="3">
         <v>948000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>827000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>960000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1073000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1016000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>953000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>764700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>767600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>697000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>660700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>677200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>696500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>616100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>549300</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E45" s="3">
         <v>139000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>167000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>263000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>275000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>224000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>212000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2108200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>199200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>153700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>138400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>152800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>172400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>112900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1634000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1489000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1894000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1781000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1895000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1710000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1729000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3439500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1474100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1294200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1262100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1444600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1330700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1185000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1164700</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,102 +2487,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2207000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2182000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2186000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2261000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2260000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2326000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>615000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>543600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>552000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>560700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>583200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>599400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>562700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>585500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>591500</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3563000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3467000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3474000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3906000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3769000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3902000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3952000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1912900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1955500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1984300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2083400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2037400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>525400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>534000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>537800</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>399000</v>
+      </c>
+      <c r="E52" s="3">
         <v>395000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>392000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>377000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>469000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>370000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>354000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>132400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>125700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>121600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>130300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>135400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>112900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>108500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7803000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7533000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7946000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8325000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8393000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8308000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6650000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6028400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4107300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3960800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4059000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4216800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2531700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2413000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2409600</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +2879,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>558000</v>
+      </c>
+      <c r="E57" s="3">
         <v>596000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>428000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>375000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>390000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>355000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>371000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>329000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>290500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>279300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>294100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>290200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>174000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>153400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>176300</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E58" s="3">
         <v>191000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>167000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1031000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>603000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>514000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>630000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>579400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>255000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>266900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>200000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>155800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>823000</v>
+      </c>
+      <c r="E59" s="3">
         <v>802000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>806000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>899000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>810000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>799000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>541000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>479000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>452400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>399500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>466200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>431800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>300700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>271800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1581000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1589000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1401000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2305000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1803000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1668000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1542000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1387400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>997900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>945700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>960300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>722100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>474700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>581000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>565800</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1581000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1577000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2012000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1085000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1796000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1917000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1936000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1954700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>504600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>554200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>674400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>992400</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2442000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2360000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2365000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2324000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2382000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2395000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>736000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>419200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>421500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>419400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>402800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>422000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>251800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>250700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>248800</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5604000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5527000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5779000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5716000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5988000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5987000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4221000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3764700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1927600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1922900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2041300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2139900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>726700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>832100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>817000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4274000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4152000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4332000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4883000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4673000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4600000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4707000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4687300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4487700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4350100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4152000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4107900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3888500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3685600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3560300</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2199000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2006000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2167000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2609000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2405000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2321000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2429000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2263700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2179700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2037900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2017700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2076900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1805000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1580900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1592600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43099</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-180000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-551000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>210000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>73000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>45000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>19400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>199600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>137600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>186400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>44100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>219400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>202900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>125500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3835,46 +4034,49 @@
         <v>54000</v>
       </c>
       <c r="E83" s="3">
+        <v>54000</v>
+      </c>
+      <c r="F83" s="3">
         <v>61000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>63000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>65000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>60000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>64900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>51500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>52700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>55900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>58700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>54000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>48300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>47600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E89" s="3">
         <v>67000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>107000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>509000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>85000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>158000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-81700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>512000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>57400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>206300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>189200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>544200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>134800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>194300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>147500</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-32000</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-59000</v>
       </c>
       <c r="F91" s="3">
         <v>-59000</v>
       </c>
       <c r="G91" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="H91" s="3">
         <v>-51000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-54000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-46300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-44900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-49100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-40700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-36600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-25900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-43100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-14800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-32000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>195000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-58000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-43000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-32000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1909400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-153700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-21200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-40700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-36600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1400800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-79800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-16200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-420000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>57000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-397000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-19000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-138000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-20700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1673700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-48700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-153300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-311400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>992100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-153400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-137700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-265400</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-4000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>4000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4000</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-385000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>355000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>58000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>19000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-12000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2013700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2030600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-14700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-154000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>139200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-95500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>44100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-139200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CPRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPRI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>CPRI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,243 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E7" s="2">
         <v>44100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43827</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43463</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43099</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1302000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1110000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>451000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1192000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1571000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1442000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1346000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1343700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1438000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1253800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1202500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1179500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1440100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1146600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>952400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1064800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>454000</v>
+      </c>
+      <c r="E9" s="3">
         <v>400000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>149000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>561000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>639000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>568000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>512000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>550800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>564800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>490700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>451700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>469700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>556100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>455800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>377700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>445100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>848000</v>
+      </c>
+      <c r="E10" s="3">
         <v>710000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>302000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>631000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>932000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>874000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>834000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>792900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>873200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>763100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>750800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>709800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>884000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>690800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>574700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>619700</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +920,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +971,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,108 +1024,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E14" s="3">
         <v>38000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>23000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>493000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>27000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>110000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>112000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>78600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>25600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>25200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>15600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>64600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>30600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>39600</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>193800</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>53000</v>
+      </c>
+      <c r="F15" s="3">
         <v>54000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
+        <v>61000</v>
+      </c>
+      <c r="H15" s="3">
+        <v>63000</v>
+      </c>
+      <c r="I15" s="3">
+        <v>65000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>60000</v>
+      </c>
+      <c r="K15" s="3">
+        <v>64900</v>
+      </c>
+      <c r="L15" s="3">
+        <v>51500</v>
+      </c>
+      <c r="M15" s="3">
+        <v>52700</v>
+      </c>
+      <c r="N15" s="3">
+        <v>55900</v>
+      </c>
+      <c r="O15" s="3">
+        <v>58700</v>
+      </c>
+      <c r="P15" s="3">
         <v>54000</v>
       </c>
-      <c r="F15" s="3">
-        <v>61000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>63000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>65000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>60000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>64900</v>
-      </c>
-      <c r="K15" s="3">
-        <v>51500</v>
-      </c>
-      <c r="L15" s="3">
-        <v>52700</v>
-      </c>
-      <c r="M15" s="3">
-        <v>55900</v>
-      </c>
-      <c r="N15" s="3">
-        <v>58700</v>
-      </c>
-      <c r="O15" s="3">
-        <v>54000</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>48300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>47600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1150,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>957000</v>
+        <v>1136000</v>
       </c>
       <c r="E17" s="3">
+        <v>956000</v>
+      </c>
+      <c r="F17" s="3">
         <v>613000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1728000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1366000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1367000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1282000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1303300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1148000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1064400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>987300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1092400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1126600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>947500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>803000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1107400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>153000</v>
+        <v>166000</v>
       </c>
       <c r="E18" s="3">
+        <v>154000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-162000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-536000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>205000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>75000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>64000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>40400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>290000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>189400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>215200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>87100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>313500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>199100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>149400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-42600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1277,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>17000</v>
       </c>
       <c r="E20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F20" s="3">
         <v>4000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3000</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-41200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-31500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-26900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>40800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>235000</v>
+      </c>
+      <c r="E21" s="3">
         <v>207000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-104000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-479000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>271000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>137000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>124000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>104100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>300300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>210600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>269000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>145100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>340600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>288200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>198800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E22" s="3">
         <v>12000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>17000</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G22" s="3">
-        <v>3000</v>
       </c>
       <c r="H22" s="3">
         <v>3000</v>
       </c>
       <c r="I22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J22" s="3">
         <v>13000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>16900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>12100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1100</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E23" s="3">
         <v>141000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-175000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-540000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>205000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>69000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>51000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>22300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>241100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>152000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>205600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>74300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>278300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>239100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>150100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-41300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E24" s="3">
         <v>20000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>12000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-4000</v>
       </c>
       <c r="H24" s="3">
         <v>-4000</v>
       </c>
       <c r="I24" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="J24" s="3">
         <v>6000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>41700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>14900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>19400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>21000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>46500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>36400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>24600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-14500</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1593,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>178000</v>
+      </c>
+      <c r="E26" s="3">
         <v>121000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-180000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-552000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>209000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>73000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>45000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>19300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>199400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>137100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>186200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>53300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>231800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>202700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>125500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>179000</v>
+      </c>
+      <c r="E27" s="3">
         <v>122000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-180000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-551000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>210000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>73000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>45000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>19400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>199600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>137600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>186400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>52900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>231800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>202900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>125500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1730,14 +1790,14 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-8800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-12400</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1745,8 +1805,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1911,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-17000</v>
       </c>
       <c r="E32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-4000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3000</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>41200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>31500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>26900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-40800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>179000</v>
+      </c>
+      <c r="E33" s="3">
         <v>122000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-180000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-551000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>210000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>73000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>45000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>19400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>199600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>137600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>186400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>44100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>219400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>202900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>125500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2070,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>179000</v>
+      </c>
+      <c r="E35" s="3">
         <v>122000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-180000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-551000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>210000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>73000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>45000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>19400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>199600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>137600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>186400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>44100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>219400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>202900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>125500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E38" s="2">
         <v>44100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43827</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43463</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43099</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2225,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>229000</v>
+      </c>
+      <c r="E41" s="3">
         <v>238000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>207000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>592000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>237000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>179000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>160000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>172000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>264500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>155200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>169900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>163100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>317100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>178200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>273700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>227700</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,208 +2329,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>381000</v>
+      </c>
+      <c r="E43" s="3">
         <v>352000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>195000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>308000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>321000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>368000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>310000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>392000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>302100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>352100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>273600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>299900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>297500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>283600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>182300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>277800</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>789000</v>
+      </c>
+      <c r="E44" s="3">
         <v>930000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>948000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>827000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>960000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1073000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1016000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>953000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>764700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>767600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>697000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>660700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>677200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>696500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>616100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>549300</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E45" s="3">
         <v>114000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>139000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>167000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>263000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>275000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>224000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>212000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2108200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>199200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>153700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>138400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>152800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>172400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>112900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1493000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1634000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1489000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1894000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1781000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1895000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1710000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1729000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3439500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1474100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1294200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1262100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1444600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1330700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1185000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1164700</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,108 +2594,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2093000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2207000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2182000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2186000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2261000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2260000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2326000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>615000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>543600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>552000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>560700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>583200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>599400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>562700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>585500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>591500</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3717000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3563000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3467000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3474000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3906000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3769000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3902000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3952000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1912900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1955500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1984300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2083400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2037400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>525400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>534000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>537800</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2806,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>462000</v>
+      </c>
+      <c r="E52" s="3">
         <v>399000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>395000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>392000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>377000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>469000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>370000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>354000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>132400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>125700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>121600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>130300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>135400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>112900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>108500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2912,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7765000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7803000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7533000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7946000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8325000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8393000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8308000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6650000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6028400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4107300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3960800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4059000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4216800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2531700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2413000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2409600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3009,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>495000</v>
+      </c>
+      <c r="E57" s="3">
         <v>558000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>596000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>428000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>375000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>390000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>355000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>371000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>329000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>290500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>279300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>294100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>290200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>174000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>153400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>176300</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>169000</v>
+      </c>
+      <c r="E58" s="3">
         <v>200000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>191000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>167000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1031000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>603000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>514000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>630000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>579400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>255000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>266900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>200000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>155800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>930000</v>
+      </c>
+      <c r="E59" s="3">
         <v>823000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>802000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>806000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>899000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>810000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>799000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>541000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>479000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>452400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>399500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>466200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>431800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>300700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>271800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1594000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1581000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1589000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1401000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2305000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1803000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1668000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1542000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1387400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>997900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>945700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>960300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>722100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>474700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>581000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>565800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1243000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1581000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1577000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2012000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1085000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1796000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1917000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1936000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1954700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>504600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>554200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>674400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>992400</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2573000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2442000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2360000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2365000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2324000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2382000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2395000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>736000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>419200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>421500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>419400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>402800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>422000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>251800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>250700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>248800</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3484,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5409000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5604000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5527000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5779000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5716000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5988000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5987000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4221000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3764700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1927600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1922900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2041300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2139900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>726700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>832100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>817000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3770,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4453000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4274000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4152000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4332000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4883000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4673000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4600000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4707000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4687300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4487700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4350100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4152000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4107900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3888500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3685600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3560300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3982,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2356000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2199000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2006000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2167000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2609000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2405000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2321000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2429000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2263700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2179700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2037900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2017700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2076900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1805000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1580900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1592600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4088,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E80" s="2">
         <v>44100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43827</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43463</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43099</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>179000</v>
+      </c>
+      <c r="E81" s="3">
         <v>122000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-180000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-551000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>210000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>73000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>45000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>19400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>199600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>137600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>186400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>44100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>219400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>202900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>125500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4222,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="E83" s="3">
         <v>54000</v>
       </c>
       <c r="F83" s="3">
+        <v>54000</v>
+      </c>
+      <c r="G83" s="3">
         <v>61000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>63000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>65000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>60000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>64900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>51500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>52700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>55900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>58700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>54000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>48300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>47600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4538,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>408000</v>
+      </c>
+      <c r="E89" s="3">
         <v>70000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>67000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>107000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>509000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>85000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>158000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-81700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>512000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>57400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>206300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>189200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>544200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>134800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>194300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>147500</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4614,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-27000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-32000</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-59000</v>
       </c>
       <c r="G91" s="3">
         <v>-59000</v>
       </c>
       <c r="H91" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-51000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-54000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-46300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-44900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-49100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-40700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-36600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-25900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-43100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-14800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4771,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-39000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-32000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>195000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-58000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-43000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-32000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1909400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-153700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-21200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-40700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-36600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1400800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-79800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-16200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5057,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-382000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-420000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>57000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-397000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-19000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-138000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-20700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1673700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-48700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-153300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-311400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>992100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-153400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-137700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-265400</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-4000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4000</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E102" s="3">
         <v>31000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-385000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>355000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>58000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>19000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-12000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2013700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2030600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-14700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-154000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>139200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-95500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>44100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-139200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CPRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPRI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>CPRI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,243 +665,256 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44282</v>
+      </c>
+      <c r="E7" s="2">
         <v>44191</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43827</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43463</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43099</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1197000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1302000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1110000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>451000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1192000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1571000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1442000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1346000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1343700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1438000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1253800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1202500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1179500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1440100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1146600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>952400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1064800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>460000</v>
+      </c>
+      <c r="E9" s="3">
         <v>454000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>400000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>149000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>561000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>639000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>568000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>512000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>550800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>564800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>490700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>451700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>469700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>556100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>455800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>377700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>445100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>737000</v>
+      </c>
+      <c r="E10" s="3">
         <v>848000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>710000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>302000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>631000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>932000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>874000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>834000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>792900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>873200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>763100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>750800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>709800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>884000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>690800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>574700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>619700</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -921,8 +934,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -974,8 +988,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,114 +1044,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>220000</v>
+      </c>
+      <c r="E14" s="3">
         <v>104000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>38000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>23000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>493000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>27000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>110000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>112000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>78600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>25600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>25200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>15600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>64600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>30600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>39600</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>193800</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>53000</v>
+        <v>52000</v>
       </c>
       <c r="E15" s="3">
         <v>53000</v>
       </c>
       <c r="F15" s="3">
+        <v>53000</v>
+      </c>
+      <c r="G15" s="3">
         <v>54000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>61000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>63000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>65000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>60000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>64900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>51500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>52700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>55900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>58700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>54000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>48300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>47600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,114 +1177,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>1136000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>956000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>613000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1728000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1366000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1367000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1282000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1303300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1148000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1064400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>987300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1092400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1126600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>947500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>803000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1107400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>166000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>154000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-162000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-536000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>205000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>75000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>64000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>40400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>290000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>189400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>215200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>87100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>313500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>199100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>149400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-42600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,273 +1311,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
         <v>17000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3000</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-41200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-31500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-26900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>40800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>235000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>207000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-104000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-479000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>271000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>137000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>124000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>104100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>300300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>210600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>269000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>145100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>340600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>288200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>198800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E22" s="3">
         <v>10000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>12000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>17000</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="H22" s="3">
-        <v>3000</v>
       </c>
       <c r="I22" s="3">
         <v>3000</v>
       </c>
       <c r="J22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K22" s="3">
         <v>13000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>12100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1100</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-136000</v>
+      </c>
+      <c r="E23" s="3">
         <v>173000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>141000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-175000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-540000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>205000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>69000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>51000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>22300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>241100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>152000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>205600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>74300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>278300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>239100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>150100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-41300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-5000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>20000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>12000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-4000</v>
       </c>
       <c r="I24" s="3">
         <v>-4000</v>
       </c>
       <c r="J24" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K24" s="3">
         <v>6000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>41700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>14900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>19400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>21000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>46500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>36400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>24600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-14500</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,114 +1645,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>178000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>121000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-180000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-552000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>209000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>73000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>45000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>19300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>199400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>137100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>186200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>53300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>231800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>202700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>125500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>179000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>122000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-180000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-551000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>210000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>73000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>45000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>19400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>199600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>137600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>186400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>52900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>231800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>202900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>125500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1793,14 +1854,14 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-8800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-12400</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1808,8 +1869,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,114 +1981,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
         <v>-17000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3000</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>41200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>31500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>26900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-40800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>179000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>122000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-180000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-551000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>210000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>73000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>45000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>19400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>199600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>137600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>186400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>44100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>219400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>202900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>125500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>179000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>122000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-180000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-551000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>210000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>73000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>45000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>19400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>199600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>137600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>186400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>44100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>219400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>202900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>125500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44282</v>
+      </c>
+      <c r="E38" s="2">
         <v>44191</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43827</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43463</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43099</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,61 +2312,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>232000</v>
+      </c>
+      <c r="E41" s="3">
         <v>229000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>238000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>207000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>592000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>237000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>179000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>160000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>172000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>264500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>155200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>169900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>163100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>317100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>178200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>273700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>227700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2332,220 +2422,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>373000</v>
+      </c>
+      <c r="E43" s="3">
         <v>381000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>352000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>195000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>308000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>321000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>368000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>310000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>392000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>302100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>352100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>273600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>299900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>297500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>283600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>182300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>277800</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>736000</v>
+      </c>
+      <c r="E44" s="3">
         <v>789000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>930000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>948000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>827000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>960000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1073000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1016000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>953000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>764700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>767600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>697000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>660700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>677200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>696500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>616100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>549300</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>205000</v>
+      </c>
+      <c r="E45" s="3">
         <v>94000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>114000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>139000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>167000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>263000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>275000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>224000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>212000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2108200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>199200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>153700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>138400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>152800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>172400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>112900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1546000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1493000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1634000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1489000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1894000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1781000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1895000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1710000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1729000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3439500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1474100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1294200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1262100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1444600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1330700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1185000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1164700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2597,114 +2702,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1989000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2093000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2207000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2182000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2186000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2261000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2260000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2326000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>615000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>543600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>552000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>560700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>583200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>599400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>562700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>585500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>591500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3490000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3717000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3563000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3467000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3474000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3906000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3769000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3902000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3952000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1912900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1955500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1984300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2083400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2037400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>525400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>534000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>537800</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,61 +2926,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>456000</v>
+      </c>
+      <c r="E52" s="3">
         <v>462000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>399000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>395000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>392000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>377000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>469000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>370000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>354000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>132400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>125700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>121600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>130300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>135400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>112900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>108500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,61 +3038,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7481000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7765000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7803000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7533000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7946000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8325000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8393000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8308000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6650000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6028400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4107300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3960800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4059000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4216800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2531700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2413000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2409600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,326 +3140,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>512000</v>
+      </c>
+      <c r="E57" s="3">
         <v>495000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>558000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>596000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>428000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>375000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>390000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>355000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>371000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>329000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>290500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>279300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>294100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>290200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>174000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>153400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>176300</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E58" s="3">
         <v>169000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>200000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>191000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>167000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1031000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>603000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>514000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>630000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>579400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>255000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>266900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>200000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>155800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>986000</v>
+      </c>
+      <c r="E59" s="3">
         <v>930000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>823000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>802000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>806000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>899000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>810000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>799000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>541000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>479000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>452400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>399500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>466200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>431800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>300700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>271800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1621000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1594000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1581000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1589000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1401000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2305000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1803000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1668000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1542000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1387400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>997900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>945700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>960300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>722100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>474700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>581000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>565800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>1243000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1581000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1577000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2012000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1085000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1796000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1917000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1936000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1954700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>504600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>554200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>674400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>992400</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2484000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2573000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2442000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2360000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2365000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2324000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2382000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2395000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>736000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>419200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>421500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>419400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>402800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>422000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>251800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>250700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>248800</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,61 +3642,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5323000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5409000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5604000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5527000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5779000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5716000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5988000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5987000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4221000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3764700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1927600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1922900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2041300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2139900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>726700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>832100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>817000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3720,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,61 +3944,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4270000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4453000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4274000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4152000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4332000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4883000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4673000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4600000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4707000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4687300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4487700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4350100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4152000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4107900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3888500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3685600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3560300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,61 +4168,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2158000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2356000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2199000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2006000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2167000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2609000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2405000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2321000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2429000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2263700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2179700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2037900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2017700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2076900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1805000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1580900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1592600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44282</v>
+      </c>
+      <c r="E80" s="2">
         <v>44191</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43827</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43463</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43099</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>179000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>122000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-180000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-551000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>210000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>73000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>45000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>19400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>199600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>137600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>186400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>44100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>219400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>202900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>125500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,8 +4421,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4232,52 +4431,55 @@
         <v>52000</v>
       </c>
       <c r="E83" s="3">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="F83" s="3">
         <v>54000</v>
       </c>
       <c r="G83" s="3">
+        <v>54000</v>
+      </c>
+      <c r="H83" s="3">
         <v>61000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>63000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>65000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>60000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>64900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>51500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>52700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>55900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>58700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>54000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>48300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>47600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,61 +4755,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E89" s="3">
         <v>408000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>70000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>67000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>107000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>509000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>85000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>158000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-81700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>512000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>57400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>206300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>189200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>544200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>134800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>194300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>147500</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,8 +4835,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4624,52 +4845,55 @@
         <v>-26000</v>
       </c>
       <c r="E91" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-27000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-32000</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-59000</v>
       </c>
       <c r="H91" s="3">
         <v>-59000</v>
       </c>
       <c r="I91" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="J91" s="3">
         <v>-51000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-54000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-46300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-44900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-49100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-40700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-36600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-25900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-43100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-14800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,61 +5001,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-26000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-39000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-32000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>195000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-58000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-43000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-32000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1909400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-153700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-21200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-40700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-36600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1400800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-79800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-16200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4901,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,163 +5303,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-67000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-382000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-420000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>57000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-397000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-19000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-138000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-20700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1673700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-48700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-153300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-311400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>992100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-153400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-137700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-265400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-9000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4000</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-1900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>31000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-385000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>355000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>58000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>19000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-12000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2013700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2030600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-14700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-154000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>139200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-95500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>44100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-139200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CPRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPRI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>CPRI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,256 +665,269 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44373</v>
+      </c>
+      <c r="E7" s="2">
         <v>44282</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44191</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43827</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43463</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43099</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42917</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1253000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1197000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1302000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1110000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>451000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1192000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1571000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1442000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1346000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1343700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1438000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1253800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1202500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1179500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1440100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1146600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>952400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1064800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>397000</v>
+      </c>
+      <c r="E9" s="3">
         <v>460000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>454000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>400000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>149000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>561000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>639000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>568000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>512000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>550800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>564800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>490700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>451700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>469700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>556100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>455800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>377700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>445100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>856000</v>
+      </c>
+      <c r="E10" s="3">
         <v>737000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>848000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>710000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>302000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>631000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>932000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>874000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>834000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>792900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>873200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>763100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>750800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>709800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>884000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>690800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>574700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>619700</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -935,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,120 +1064,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="3">
         <v>220000</v>
       </c>
-      <c r="E14" s="3">
-        <v>104000</v>
-      </c>
       <c r="F14" s="3">
-        <v>38000</v>
+        <v>91000</v>
       </c>
       <c r="G14" s="3">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="H14" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I14" s="3">
         <v>493000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>27000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>110000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>112000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>78600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>25600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>25200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>15600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>64600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>30600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>39600</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>193800</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E15" s="3">
         <v>52000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>53000</v>
       </c>
       <c r="F15" s="3">
         <v>53000</v>
       </c>
       <c r="G15" s="3">
+        <v>53000</v>
+      </c>
+      <c r="H15" s="3">
         <v>54000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>61000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>63000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>65000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>60000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>64900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>51500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>52700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>55900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>58700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>54000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>48300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>47600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>995000</v>
       </c>
       <c r="E17" s="3">
+        <v>1336000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1136000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>956000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>613000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1728000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1366000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1367000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1282000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1303300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1148000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1064400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>987300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1092400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1126600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>947500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>803000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1107400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>258000</v>
       </c>
       <c r="E18" s="3">
+        <v>-139000</v>
+      </c>
+      <c r="F18" s="3">
         <v>166000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>154000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-162000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-536000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>205000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>75000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>64000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>40400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>290000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>189400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>215200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>87100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>313500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>199100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>149400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-42600</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>-1000</v>
       </c>
       <c r="E20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F20" s="3">
         <v>17000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3000</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-41200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-31500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-26900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>40800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>307000</v>
       </c>
       <c r="E21" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="F21" s="3">
         <v>235000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>207000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-104000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-479000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>271000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>137000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>124000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>104100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>300300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>210600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>269000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>145100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>340600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>288200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>198800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="3">
         <v>4000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>10000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>12000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>17000</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="I22" s="3">
-        <v>3000</v>
       </c>
       <c r="J22" s="3">
         <v>3000</v>
       </c>
       <c r="K22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L22" s="3">
         <v>13000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>12100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1100</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>256000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-136000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>173000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>141000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-175000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-540000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>205000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>69000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>51000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>22300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>241100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>152000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>205600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>74300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>278300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>239100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>150100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-41300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E24" s="3">
         <v>46000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-5000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>20000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>12000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-4000</v>
       </c>
       <c r="J24" s="3">
         <v>-4000</v>
       </c>
       <c r="K24" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="L24" s="3">
         <v>6000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>41700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>14900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>19400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>21000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>46500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>36400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>24600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-14500</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>219000</v>
       </c>
       <c r="E26" s="3">
+        <v>-182000</v>
+      </c>
+      <c r="F26" s="3">
         <v>178000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>121000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-180000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-552000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>209000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>73000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>45000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>19300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>199400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>137100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>186200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>53300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>231800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>202700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>125500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>219000</v>
       </c>
       <c r="E27" s="3">
+        <v>-183000</v>
+      </c>
+      <c r="F27" s="3">
         <v>179000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>122000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-180000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-551000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>210000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>73000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>45000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>19400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>199600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>137600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>186400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>52900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>231800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>202900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>125500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,31 +1874,34 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1857,14 +1918,14 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-12400</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -1872,8 +1933,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>1000</v>
       </c>
       <c r="E32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-17000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3000</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>41200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>31500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>26900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-40800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>219000</v>
       </c>
       <c r="E33" s="3">
+        <v>-183000</v>
+      </c>
+      <c r="F33" s="3">
         <v>179000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>122000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-180000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-551000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>210000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>73000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>45000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>19400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>199600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>137600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>186400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>44100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>219400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>202900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>125500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>219000</v>
       </c>
       <c r="E35" s="3">
+        <v>-183000</v>
+      </c>
+      <c r="F35" s="3">
         <v>179000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>122000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-180000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-551000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>210000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>73000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>45000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>19400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>199600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>137600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>186400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>44100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>219400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>202900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>125500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44373</v>
+      </c>
+      <c r="E38" s="2">
         <v>44282</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44191</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43827</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43463</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43099</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42917</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>356000</v>
+      </c>
+      <c r="E41" s="3">
         <v>232000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>229000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>238000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>207000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>592000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>237000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>179000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>160000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>172000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>264500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>155200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>169900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>163100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>317100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>178200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>273700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>227700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2425,232 +2515,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>373000</v>
+        <v>398000</v>
       </c>
       <c r="E43" s="3">
+        <v>386000</v>
+      </c>
+      <c r="F43" s="3">
         <v>381000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>352000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>195000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>308000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>321000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>368000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>310000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>392000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>302100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>352100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>273600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>299900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>297500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>283600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>182300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>277800</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>760000</v>
+      </c>
+      <c r="E44" s="3">
         <v>736000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>789000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>930000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>948000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>827000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>960000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1073000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1016000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>953000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>764700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>767600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>697000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>660700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>677200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>696500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>616100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>549300</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>205000</v>
+        <v>193000</v>
       </c>
       <c r="E45" s="3">
+        <v>192000</v>
+      </c>
+      <c r="F45" s="3">
         <v>94000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>114000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>139000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>167000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>263000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>275000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>224000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>212000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2108200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>199200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>153700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>138400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>152800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>172400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>112900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1707000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1546000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1493000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1634000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1489000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1894000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1781000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1895000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1710000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1729000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3439500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1474100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1294200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1262100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1444600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1330700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1185000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1164700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2705,120 +2810,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1940000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1989000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2093000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2207000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2182000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2186000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2261000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2260000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2326000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>615000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>543600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>552000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>560700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>583200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>599400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>562700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>585500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>591500</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3508000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3490000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3717000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3563000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3467000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3474000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3906000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3769000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3902000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3952000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1912900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1955500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1984300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2083400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2037400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>525400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>534000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>537800</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>469000</v>
+      </c>
+      <c r="E52" s="3">
         <v>456000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>462000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>399000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>395000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>392000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>377000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>469000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>370000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>354000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>132400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>125700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>121600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>130300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>135400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>112900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>108500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7624000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7481000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7765000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7803000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7533000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7946000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8325000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8393000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8308000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6650000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6028400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4107300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3960800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4059000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4216800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2531700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2413000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2409600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>464000</v>
+      </c>
+      <c r="E57" s="3">
         <v>512000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>495000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>558000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>596000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>428000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>375000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>390000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>355000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>371000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>329000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>290500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>279300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>294100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>290200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>174000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>153400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>176300</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E58" s="3">
         <v>123000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>169000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>200000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>191000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>167000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1031000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>603000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>514000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>630000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>579400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>255000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>266900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>200000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>155800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>971000</v>
+      </c>
+      <c r="E59" s="3">
         <v>986000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>930000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>823000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>802000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>806000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>899000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>810000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>799000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>541000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>479000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>452400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>399500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>466200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>431800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>300700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>271800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1562000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1621000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1594000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1581000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1589000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1401000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2305000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1803000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1668000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1542000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1387400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>997900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>945700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>960300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>722100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>474700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>581000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>565800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1206000</v>
       </c>
       <c r="E61" s="3">
+        <v>1219000</v>
+      </c>
+      <c r="F61" s="3">
         <v>1243000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1581000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1577000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2012000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1085000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1796000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1917000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1936000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1954700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>504600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>554200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>674400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>992400</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2406000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2484000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2573000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2442000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2360000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2365000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2324000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2382000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2395000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>736000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>419200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>421500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>419400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>402800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>422000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>251800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>250700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>248800</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5172000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5323000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5409000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5604000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5527000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5779000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5716000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5988000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5987000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4221000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3764700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1927600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1922900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2041300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2139900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>726700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>832100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>817000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4489000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4270000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4453000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4274000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4152000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4332000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4883000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4673000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4600000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4707000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4687300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4487700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4350100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4152000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4107900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3888500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3685600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3560300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2452000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2158000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2356000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2199000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2006000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2167000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2609000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2405000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2321000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2429000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2263700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2179700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2037900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2017700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2076900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1805000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1580900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1592600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44373</v>
+      </c>
+      <c r="E80" s="2">
         <v>44282</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44191</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43827</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43463</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43099</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42917</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>219000</v>
       </c>
       <c r="E81" s="3">
+        <v>-183000</v>
+      </c>
+      <c r="F81" s="3">
         <v>179000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>122000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-180000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-551000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>210000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>73000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>45000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>19400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>199600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>137600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>186400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>44100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>219400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>202900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>125500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>52000</v>
+        <v>50000</v>
       </c>
       <c r="E83" s="3">
         <v>52000</v>
       </c>
       <c r="F83" s="3">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G83" s="3">
         <v>54000</v>
       </c>
       <c r="H83" s="3">
+        <v>54000</v>
+      </c>
+      <c r="I83" s="3">
         <v>61000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>63000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>65000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>60000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>64900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>51500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>52700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>55900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>58700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>54000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>48300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>47600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>204000</v>
+      </c>
+      <c r="E89" s="3">
         <v>79000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>408000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>70000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>67000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>107000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>509000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>85000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>158000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-81700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>512000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>57400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>206300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>189200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>544200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>134800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>194300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>147500</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-26000</v>
+        <v>-23000</v>
       </c>
       <c r="E91" s="3">
         <v>-26000</v>
       </c>
       <c r="F91" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="G91" s="3">
         <v>-27000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-32000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-59000</v>
       </c>
       <c r="I91" s="3">
         <v>-59000</v>
       </c>
       <c r="J91" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-51000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-54000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-46300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-44900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-49100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-40700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-36600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-25900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-43100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-14800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-27000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-26000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-39000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-32000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>195000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-58000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-43000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-32000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1909400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-153700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-21200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-40700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-36600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1400800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-79800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-16200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-67000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-382000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-420000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>57000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-397000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-19000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-138000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-20700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1673700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-48700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-153300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-311400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>992100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-153400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-137700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-265400</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>20000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-9000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4000</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-1900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-5500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E102" s="3">
         <v>5000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>31000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-385000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>355000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>58000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>19000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-12000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2013700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2030600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-14700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-154000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>139200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-95500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>44100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-139200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CPRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPRI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>CPRI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44464</v>
+      </c>
+      <c r="E7" s="2">
         <v>44373</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44282</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44191</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43827</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43463</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43099</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42917</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1300000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1253000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1197000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1302000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1110000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>451000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1192000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1571000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1442000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1346000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1343700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1438000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1253800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1202500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1179500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1440100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1146600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>952400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1064800</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>416000</v>
+      </c>
+      <c r="E9" s="3">
         <v>397000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>460000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>454000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>400000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>149000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>561000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>639000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>568000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>512000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>550800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>564800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>490700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>451700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>469700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>556100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>455800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>377700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>445100</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>884000</v>
+      </c>
+      <c r="E10" s="3">
         <v>856000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>737000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>848000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>710000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>302000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>631000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>932000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>874000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>834000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>792900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>873200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>763100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>750800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>709800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>884000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>690800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>574700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>619700</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,126 +1084,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E14" s="3">
         <v>3000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>220000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>91000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>29000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>8000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>493000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>27000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>110000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>112000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>78600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>25600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>25200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>15600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>64600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>30600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>39600</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>193800</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E15" s="3">
         <v>50000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>52000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>53000</v>
       </c>
       <c r="G15" s="3">
         <v>53000</v>
       </c>
       <c r="H15" s="3">
+        <v>53000</v>
+      </c>
+      <c r="I15" s="3">
         <v>54000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>61000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>63000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>65000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>60000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>64900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>51500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>52700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>55900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>58700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>54000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>48300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>47600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1105000</v>
+      </c>
+      <c r="E17" s="3">
         <v>995000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1336000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1136000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>956000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>613000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1728000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1366000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1367000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1282000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1303300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1148000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1064400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>987300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1092400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1126600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>947500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>803000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1107400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>195000</v>
+      </c>
+      <c r="E18" s="3">
         <v>258000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-139000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>166000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>154000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-162000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-536000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>205000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>75000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>64000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>40400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>290000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>189400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>215200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>87100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>313500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>199100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>149400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-42600</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>17000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3000</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-41200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-31500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-26900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>40800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>247000</v>
+      </c>
+      <c r="E21" s="3">
         <v>307000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-80000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>235000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>207000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-104000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-479000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>271000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>137000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>124000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>104100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>300300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>210600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>269000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>145100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>340600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>288200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>198800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3">
         <v>1000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>10000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>12000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>17000</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="J22" s="3">
-        <v>3000</v>
       </c>
       <c r="K22" s="3">
         <v>3000</v>
       </c>
       <c r="L22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M22" s="3">
         <v>13000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>16900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>12100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1100</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>198000</v>
+      </c>
+      <c r="E23" s="3">
         <v>256000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-136000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>173000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>141000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-175000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-540000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>205000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>69000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>51000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>22300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>241100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>152000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>205600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>74300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>278300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>239100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>150100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-41300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E24" s="3">
         <v>37000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>46000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-5000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>20000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>12000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-4000</v>
       </c>
       <c r="K24" s="3">
         <v>-4000</v>
       </c>
       <c r="L24" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="M24" s="3">
         <v>6000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>41700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>14900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>19400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>21000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>46500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>36400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>24600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-14500</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E26" s="3">
         <v>219000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-182000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>178000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>121000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-180000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-552000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>209000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>73000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>45000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>19300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>199400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>137100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>186200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>53300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>231800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>202700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>125500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E27" s="3">
         <v>219000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-183000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>179000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>122000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-180000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-551000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>210000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>73000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>45000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>19400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>199600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>137600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>186400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>52900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>231800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>202900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>125500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1903,8 +1964,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1921,14 +1982,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-8800</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-12400</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-17000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3000</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>41200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>31500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>26900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-40800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E33" s="3">
         <v>219000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-183000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>179000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>122000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-180000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-551000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>210000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>73000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>45000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>19400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>199600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>137600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>186400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>44100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>219400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>202900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>125500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E35" s="3">
         <v>219000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-183000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>179000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>122000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-180000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-551000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>210000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>73000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>45000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>19400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>199600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>137600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>186400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>44100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>219400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>202900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>125500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44464</v>
+      </c>
+      <c r="E38" s="2">
         <v>44373</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44282</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44191</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43827</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43463</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43099</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42917</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>234000</v>
+      </c>
+      <c r="E41" s="3">
         <v>356000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>232000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>229000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>238000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>207000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>592000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>237000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>179000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>160000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>172000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>264500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>155200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>169900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>163100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>317100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>178200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>273700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>227700</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,244 +2608,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>374000</v>
+      </c>
+      <c r="E43" s="3">
         <v>398000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>386000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>381000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>352000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>195000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>308000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>321000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>368000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>310000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>392000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>302100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>352100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>273600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>299900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>297500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>283600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>182300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>277800</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>866000</v>
+      </c>
+      <c r="E44" s="3">
         <v>760000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>736000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>789000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>930000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>948000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>827000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>960000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1073000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1016000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>953000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>764700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>767600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>697000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>660700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>677200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>696500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>616100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>549300</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>198000</v>
+      </c>
+      <c r="E45" s="3">
         <v>193000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>192000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>94000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>114000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>139000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>167000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>263000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>275000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>224000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>212000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2108200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>199200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>153700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>138400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>152800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>172400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>112900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1672000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1707000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1546000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1493000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1634000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1489000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1894000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1781000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1895000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1710000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1729000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3439500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1474100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1294200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1262100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1444600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1330700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1185000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1164700</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,126 +2918,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1879000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1940000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1989000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2093000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2207000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2182000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2186000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2261000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2260000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2326000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>615000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>543600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>552000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>560700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>583200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>599400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>562700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>585500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>591500</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3444000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3508000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3490000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3717000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3563000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3467000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3474000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3906000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3769000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3902000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3952000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1912900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1955500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1984300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2083400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2037400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>525400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>534000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>537800</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>498000</v>
+      </c>
+      <c r="E52" s="3">
         <v>469000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>456000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>462000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>399000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>395000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>392000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>377000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>469000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>370000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>354000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>132400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>125700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>121600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>130300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>135400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>112900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>108500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7493000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7624000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7481000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7765000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7803000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7533000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7946000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8325000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8393000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8308000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6650000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6028400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4107300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3960800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4059000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4216800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2531700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2413000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2409600</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>491000</v>
+      </c>
+      <c r="E57" s="3">
         <v>464000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>512000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>495000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>558000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>596000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>428000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>375000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>390000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>355000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>371000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>329000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>290500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>279300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>294100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>290200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>174000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>153400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>176300</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E58" s="3">
         <v>127000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>123000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>169000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>200000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>191000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>167000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1031000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>603000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>514000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>630000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>579400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>255000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>266900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>200000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>155800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>989000</v>
+      </c>
+      <c r="E59" s="3">
         <v>971000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>986000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>930000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>823000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>802000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>806000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>899000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>810000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>799000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>541000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>479000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>452400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>399500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>466200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>431800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>300700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>271800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1520000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1562000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1621000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1594000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1581000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1589000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1401000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2305000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1803000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1668000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1542000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1387400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>997900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>945700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>960300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>722100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>474700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>581000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>565800</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1104000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1206000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1219000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1243000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1581000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1577000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2012000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1085000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1796000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1917000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1936000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1954700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>504600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>554200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>674400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>992400</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2269000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2406000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2484000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2573000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2442000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2360000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2365000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2324000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2382000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2395000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>736000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>419200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>421500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>419400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>402800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>422000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>251800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>250700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>248800</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4891000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5172000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5323000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5409000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5604000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5527000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5779000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5716000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5988000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5987000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4221000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3764700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1927600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1922900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2041300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2139900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>726700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>832100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>817000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4689000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4489000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4270000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4453000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4274000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4152000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4332000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4883000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4673000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4600000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4707000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4687300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4487700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4350100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4152000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4107900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3888500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3685600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3560300</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2602000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2452000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2158000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2356000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2199000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2006000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2167000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2609000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2405000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2321000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2429000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2263700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2179700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2037900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2017700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2076900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1805000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1580900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1592600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44464</v>
+      </c>
+      <c r="E80" s="2">
         <v>44373</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44282</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44191</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43827</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43463</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43099</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42917</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E81" s="3">
         <v>219000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-183000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>179000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>122000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-180000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-551000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>210000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>73000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>45000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>19400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>199600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>137600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>186400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>44100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>219400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>202900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>125500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E83" s="3">
         <v>50000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>52000</v>
       </c>
       <c r="F83" s="3">
         <v>52000</v>
       </c>
       <c r="G83" s="3">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="H83" s="3">
         <v>54000</v>
       </c>
       <c r="I83" s="3">
+        <v>54000</v>
+      </c>
+      <c r="J83" s="3">
         <v>61000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>63000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>65000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>60000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>64900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>51500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>52700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>55900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>58700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>54000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>48300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>47600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>192000</v>
+      </c>
+      <c r="E89" s="3">
         <v>204000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>79000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>408000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>70000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>67000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>107000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>509000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>85000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>158000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-81700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>512000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>57400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>206300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>189200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>544200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>134800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>194300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>147500</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-23000</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-26000</v>
       </c>
       <c r="F91" s="3">
         <v>-26000</v>
       </c>
       <c r="G91" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="H91" s="3">
         <v>-27000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-32000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-59000</v>
       </c>
       <c r="J91" s="3">
         <v>-59000</v>
       </c>
       <c r="K91" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="L91" s="3">
         <v>-51000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-54000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-46300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-44900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-49100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-40700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-36600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-25900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-43100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-14800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-23000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-27000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-26000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-39000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-32000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>195000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-58000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-43000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-32000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1909400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-153700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-21200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-40700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-36600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1400800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-79800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-16200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-287000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-55000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-67000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-382000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-420000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>57000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-397000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-19000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-138000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-20700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1673700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-48700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-153300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-311400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>992100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-153400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-137700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-265400</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>20000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-9000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4000</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-1900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-121000</v>
+      </c>
+      <c r="E102" s="3">
         <v>124000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-9000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>31000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-385000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>355000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>58000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>19000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-12000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2013700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2030600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-14700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-154000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>139200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-95500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>44100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-139200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CPRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPRI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>CPRI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,294 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44555</v>
+      </c>
+      <c r="E7" s="2">
         <v>44464</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44282</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44191</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43827</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43463</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43099</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42917</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1609000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1300000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1253000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1197000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1302000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1110000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>451000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1192000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1571000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1442000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1346000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1343700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1438000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1253800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1202500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1179500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1440100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1146600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>952400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1064800</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>561000</v>
+      </c>
+      <c r="E9" s="3">
         <v>416000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>397000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>460000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>454000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>400000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>149000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>561000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>639000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>568000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>512000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>550800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>564800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>490700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>451700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>469700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>556100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>455800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>377700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>445100</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1048000</v>
+      </c>
+      <c r="E10" s="3">
         <v>884000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>856000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>737000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>848000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>710000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>302000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>631000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>932000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>874000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>834000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>792900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>873200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>763100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>750800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>709800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>884000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>690800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>574700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>619700</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +975,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1038,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,132 +1103,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E14" s="3">
         <v>41000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>220000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>91000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>29000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>8000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>493000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>27000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>110000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>112000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>78600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>25600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>25200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>15600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>64600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>30600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>39600</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>193800</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E15" s="3">
         <v>49000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>50000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>52000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>53000</v>
       </c>
       <c r="H15" s="3">
         <v>53000</v>
       </c>
       <c r="I15" s="3">
+        <v>53000</v>
+      </c>
+      <c r="J15" s="3">
         <v>54000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>61000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>63000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>65000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>60000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>64900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>51500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>52700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>55900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>58700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>54000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>48300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>47600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1257,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1278000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1105000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>995000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1336000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1136000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>956000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>613000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1728000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1366000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1367000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1282000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1303300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1148000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1064400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>987300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1092400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1126600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>947500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>803000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1107400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>331000</v>
+      </c>
+      <c r="E18" s="3">
         <v>195000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>258000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-139000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>166000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>154000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-162000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-536000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>205000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>75000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>64000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>40400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>290000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>189400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>215200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>87100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>313500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>199100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>149400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-42600</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1412,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E20" s="3">
         <v>3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>7000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>17000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3000</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-41200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-31500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-26900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>40800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>389000</v>
+      </c>
+      <c r="E21" s="3">
         <v>247000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>307000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-80000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>235000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>207000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-104000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-479000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>271000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>137000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>124000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>104100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>300300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>210600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>269000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>145100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>340600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>288200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>198800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3">
         <v>1000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>10000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>12000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>17000</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="K22" s="3">
-        <v>3000</v>
       </c>
       <c r="L22" s="3">
         <v>3000</v>
       </c>
       <c r="M22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N22" s="3">
         <v>13000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>16900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>12100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1100</v>
       </c>
-      <c r="V22" s="3" t="s">
+      <c r="W22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>342000</v>
+      </c>
+      <c r="E23" s="3">
         <v>198000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>256000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-136000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>173000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>141000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-175000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-540000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>205000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>69000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>51000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>22300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>241100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>152000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>205600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>74300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>278300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>239100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>150100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-41300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>37000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>46000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-5000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>20000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>12000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-4000</v>
       </c>
       <c r="L24" s="3">
         <v>-4000</v>
       </c>
       <c r="M24" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="N24" s="3">
         <v>6000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>41700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>14900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>19400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>21000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>46500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>36400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>24600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-14500</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1800,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>323000</v>
+      </c>
+      <c r="E26" s="3">
         <v>200000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>219000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-182000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>178000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>121000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-180000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-552000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>209000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>73000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>45000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>19300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>199400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>137100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>186200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>53300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>231800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>202700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>125500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>322000</v>
+      </c>
+      <c r="E27" s="3">
         <v>200000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>219000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-183000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>179000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>122000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-180000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-551000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>210000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>73000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>45000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>19400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>199600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>137600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>186400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>52900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>231800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>202900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>125500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1995,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1967,8 +2027,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1985,14 +2045,14 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-8800</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-12400</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2000,8 +2060,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2125,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2190,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-7000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-17000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3000</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>41200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>31500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>26900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-40800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>322000</v>
+      </c>
+      <c r="E33" s="3">
         <v>200000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>219000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-183000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>179000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>122000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-180000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-551000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>210000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>73000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>45000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>19400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>199600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>137600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>186400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>44100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>219400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>202900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>125500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2385,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>322000</v>
+      </c>
+      <c r="E35" s="3">
         <v>200000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>219000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-183000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>179000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>122000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-180000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-551000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>210000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>73000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>45000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>19400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>199600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>137600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>186400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>44100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>219400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>202900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>125500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44555</v>
+      </c>
+      <c r="E38" s="2">
         <v>44464</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44282</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44191</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43827</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43463</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43099</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42917</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2547,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2572,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>261000</v>
+      </c>
+      <c r="E41" s="3">
         <v>234000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>356000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>232000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>229000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>238000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>207000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>592000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>237000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>179000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>160000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>172000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>264500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>155200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>169900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>163100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>317100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>178200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>273700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>227700</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,256 +2700,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>467000</v>
+      </c>
+      <c r="E43" s="3">
         <v>374000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>398000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>386000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>381000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>352000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>195000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>308000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>321000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>368000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>310000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>392000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>302100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>352100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>273600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>299900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>297500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>283600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>182300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>277800</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>978000</v>
+      </c>
+      <c r="E44" s="3">
         <v>866000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>760000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>736000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>789000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>930000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>948000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>827000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>960000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1073000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1016000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>953000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>764700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>767600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>697000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>660700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>677200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>696500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>616100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>549300</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>366000</v>
+      </c>
+      <c r="E45" s="3">
         <v>198000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>193000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>192000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>94000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>114000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>139000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>167000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>263000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>275000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>224000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>212000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2108200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>199200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>153700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>138400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>152800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>172400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>112900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2072000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1672000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1707000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1546000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1493000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1634000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1489000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1894000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1781000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1895000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1710000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1729000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3439500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1474100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1294200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1262100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1444600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1330700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1185000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1164700</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,132 +3025,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1861000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1879000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1940000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1989000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2093000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2207000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2182000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2186000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2261000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2260000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2326000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>615000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>543600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>552000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>560700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>583200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>599400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>562700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>585500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>591500</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3342000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3444000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3508000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3490000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3717000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3563000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3467000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3474000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3906000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3769000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3902000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3952000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1912900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1955500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1984300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2083400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2037400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>525400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>534000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>537800</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3220,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3285,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>405000</v>
+      </c>
+      <c r="E52" s="3">
         <v>498000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>469000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>456000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>462000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>399000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>395000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>392000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>377000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>469000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>370000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>354000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>132400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>125700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>121600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>130300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>135400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>112900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>108500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3415,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7680000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7493000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7624000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7481000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7765000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7803000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7533000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7946000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8325000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8393000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8308000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6650000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6028400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4107300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3960800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4059000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4216800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2531700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2413000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2409600</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3507,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3532,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>593000</v>
+      </c>
+      <c r="E57" s="3">
         <v>491000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>464000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>512000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>495000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>558000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>596000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>428000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>375000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>390000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>355000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>371000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>329000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>290500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>279300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>294100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>290200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>174000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>153400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>176300</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E58" s="3">
         <v>40000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>127000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>123000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>169000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>200000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>191000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>167000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1031000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>603000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>514000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>630000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>579400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>255000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>266900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>200000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>155800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1133000</v>
+      </c>
+      <c r="E59" s="3">
         <v>989000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>971000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>986000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>930000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>823000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>802000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>806000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>899000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>810000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>799000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>541000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>479000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>452400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>399500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>466200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>431800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>300700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>271800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1752000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1520000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1562000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1621000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1594000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1581000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1589000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1401000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2305000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1803000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1668000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1542000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1387400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>997900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>945700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>960300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>722100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>474700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>581000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>565800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>976000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1104000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1206000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1219000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1243000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1581000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1577000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2012000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1085000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1796000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1917000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1936000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1954700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>504600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>554200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>674400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>992400</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2177000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2269000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2406000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2484000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2573000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2442000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2360000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2365000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2324000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2382000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2395000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>736000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>419200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>421500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>419400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>402800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>422000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>251800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>250700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>248800</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3985,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4050,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4115,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4904000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4891000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5172000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5323000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5409000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5604000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5527000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5779000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5716000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5988000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5987000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4221000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3764700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1927600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1922900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2041300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2139900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>726700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>832100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>817000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4207,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4270,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4335,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4400,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4465,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5011000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4689000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4489000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4270000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4453000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4274000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4152000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4332000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4883000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4673000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4600000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4707000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4687300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4487700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4350100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4152000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4107900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3888500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3685600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3560300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4595,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4660,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4725,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2776000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2602000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2452000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2158000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2356000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2199000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2006000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2167000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2609000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2405000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2321000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2429000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2263700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2179700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2037900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2017700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2076900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1805000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1580900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1592600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4855,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44555</v>
+      </c>
+      <c r="E80" s="2">
         <v>44464</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44282</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44191</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43827</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43463</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43099</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42917</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>322000</v>
+      </c>
+      <c r="E81" s="3">
         <v>200000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>219000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-183000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>179000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>122000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-180000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-551000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>210000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>73000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>45000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>19400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>199600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>137600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>186400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>44100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>219400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>202900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>125500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5017,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E83" s="3">
         <v>49000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>50000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>52000</v>
       </c>
       <c r="G83" s="3">
         <v>52000</v>
       </c>
       <c r="H83" s="3">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="I83" s="3">
         <v>54000</v>
       </c>
       <c r="J83" s="3">
+        <v>54000</v>
+      </c>
+      <c r="K83" s="3">
         <v>61000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>63000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>65000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>60000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>64900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>51500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>52700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>55900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>58700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>54000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>48300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>47600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5145,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5210,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5275,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5340,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5405,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>317000</v>
+      </c>
+      <c r="E89" s="3">
         <v>192000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>204000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>79000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>408000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>70000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>67000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>107000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>509000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>85000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>158000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-81700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>512000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>57400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>206300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>189200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>544200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>134800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>194300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>147500</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5497,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-25000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-23000</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-26000</v>
       </c>
       <c r="G91" s="3">
         <v>-26000</v>
       </c>
       <c r="H91" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-27000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-32000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-59000</v>
       </c>
       <c r="K91" s="3">
         <v>-59000</v>
       </c>
       <c r="L91" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="M91" s="3">
         <v>-51000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-54000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-46300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-44900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-49100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-40700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-36600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-25900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-43100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-14800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5625,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5690,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-25000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-23000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-27000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-26000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-39000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-32000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>195000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-58000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-43000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-32000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1909400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-153700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-21200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-40700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-36600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1400800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-79800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-16200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5782,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5845,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5910,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5975,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6040,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-321000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-287000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-55000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-67000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-382000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-420000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>57000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-397000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-19000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-138000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-20700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1673700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-48700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-153300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-311400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>992100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-153400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-137700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-265400</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>20000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-9000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4000</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-1900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-5500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>3700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-121000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>124000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-9000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>31000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-385000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>355000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>58000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>19000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-12000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2013700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2030600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>6800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-154000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>139200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-95500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>44100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-139200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CPRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPRI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>CPRI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,294 +665,319 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="F7" s="2">
         <v>44555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44464</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44373</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44282</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44191</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43463</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43099</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42917</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1360000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1492000</v>
+      </c>
+      <c r="F8" s="3">
         <v>1609000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1300000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1253000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1197000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1302000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1110000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>451000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1192000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1571000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1442000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1346000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1343700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1438000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1253800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1202500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1179500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1440100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1146600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>952400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1064800</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>459000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>536000</v>
+      </c>
+      <c r="F9" s="3">
         <v>561000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>416000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>397000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>460000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>454000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>400000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>149000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>561000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>639000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>568000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>512000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>550800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>564800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>490700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>451700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>469700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>556100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>455800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>377700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>445100</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>901000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>956000</v>
+      </c>
+      <c r="F10" s="3">
         <v>1048000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>884000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>856000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>737000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>848000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>710000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>302000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>631000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>932000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>874000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>834000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>792900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>873200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>763100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>750800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>709800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>884000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>690800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>574700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>619700</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,8 +1001,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1041,8 +1068,14 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1106,138 +1139,156 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>56000</v>
+      </c>
+      <c r="F14" s="3">
         <v>12000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>41000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>3000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>220000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>91000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>29000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>8000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>493000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>27000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>110000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>112000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>78600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>25600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>25200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>15600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>64600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>30600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>39600</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>193800</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E15" s="3">
         <v>47000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
+        <v>47000</v>
+      </c>
+      <c r="G15" s="3">
         <v>49000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>50000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>52000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>53000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>53000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>54000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>61000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>63000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>65000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>60000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>64900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>51500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>52700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>55900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>58700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>54000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>48300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>47600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,138 +1309,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1129000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1373000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1278000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1105000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>995000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1336000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1136000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>956000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>613000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1728000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1366000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1367000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1282000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1303300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1148000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1064400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>987300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1092400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1126600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>947500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>803000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1107400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>231000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>119000</v>
+      </c>
+      <c r="F18" s="3">
         <v>331000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>195000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>258000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-139000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>166000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>154000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-162000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-536000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>205000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>75000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>64000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>40400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>290000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>189400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>215200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>87100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>313500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>199100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>149400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-42600</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1413,138 +1478,152 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>11000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>7000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>17000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>4000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-4000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>3000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-3000</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-41200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-31500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-2100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-26900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>40800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>1800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>276000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>166000</v>
+      </c>
+      <c r="F21" s="3">
         <v>389000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>247000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>307000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-80000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>235000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>207000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-104000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-479000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>271000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>137000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>124000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>104100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>300300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>210600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>269000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>145100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>340600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>288200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>198800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1554,192 +1633,210 @@
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3">
         <v>1000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>4000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>10000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>12000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>17000</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>3000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>3000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>13000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>16900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>7700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>5900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>7500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>12100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>8300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>1100</v>
       </c>
-      <c r="W22" s="3" t="s">
+      <c r="Y22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>231000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>119000</v>
+      </c>
+      <c r="F23" s="3">
         <v>342000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>198000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>256000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-136000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>173000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>141000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-175000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-540000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>205000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>69000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>51000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>22300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>241100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>152000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>205600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>74300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>278300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>239100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>150100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-41300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>81000</v>
+      </c>
+      <c r="F24" s="3">
         <v>19000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-2000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>37000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>46000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-5000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>20000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>5000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>12000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-4000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-4000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>6000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>3000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>41700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>14900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>19400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>21000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>46500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>36400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>24600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-14500</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1803,138 +1900,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>203000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>38000</v>
+      </c>
+      <c r="F26" s="3">
         <v>323000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>200000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>219000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-182000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>178000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>121000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-180000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-552000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>209000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>73000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>45000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>19300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>199400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>137100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>186200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>53300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>231800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>202700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>125500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>201000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>38000</v>
+      </c>
+      <c r="F27" s="3">
         <v>322000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>200000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>219000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-183000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>179000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>122000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-180000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-551000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>210000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>73000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>45000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>19400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>199600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>137600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>186400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>52900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>231800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>202900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>125500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1998,31 +2113,37 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>43000</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2030,11 +2151,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2048,23 +2169,29 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>-8800</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>-12400</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2128,8 +2255,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2193,138 +2326,156 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-11000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-7000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-17000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-4000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>4000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-3000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>3000</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>41200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>31500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>2100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>26900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-40800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-1800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>201000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>81000</v>
+      </c>
+      <c r="F33" s="3">
         <v>322000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>200000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>219000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-183000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>179000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>122000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-180000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-551000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>210000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>73000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>45000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>19400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>199600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>137600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>186400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>44100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>219400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>202900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>125500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2388,143 +2539,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>201000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>81000</v>
+      </c>
+      <c r="F35" s="3">
         <v>322000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>200000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>219000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-183000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>179000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>122000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-180000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-551000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>210000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>73000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>45000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>19400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>199600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>137600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>186400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>44100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>219400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>202900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>125500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="F38" s="2">
         <v>44555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44464</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44373</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44282</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44191</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43463</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43099</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42917</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2548,8 +2717,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2573,73 +2744,81 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>221000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>169000</v>
+      </c>
+      <c r="F41" s="3">
         <v>261000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>234000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>356000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>232000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>229000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>238000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>207000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>592000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>237000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>179000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>160000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>172000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>264500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>155200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>169900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>163100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>317100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>178200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>273700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>227700</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2703,268 +2882,298 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>403000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>451000</v>
+      </c>
+      <c r="F43" s="3">
         <v>467000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>374000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>398000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>386000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>381000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>352000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>195000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>308000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>321000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>368000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>310000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>392000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>302100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>352100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>273600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>299900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>297500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>283600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>182300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>277800</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1265000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1096000</v>
+      </c>
+      <c r="F44" s="3">
         <v>978000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>866000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>760000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>736000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>789000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>930000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>948000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>827000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>960000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1073000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1016000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>953000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>764700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>767600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>697000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>660700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>677200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>696500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>616100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>549300</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>192000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>175000</v>
+      </c>
+      <c r="F45" s="3">
         <v>366000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>198000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>193000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>192000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>94000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>114000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>139000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>167000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>263000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>275000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>224000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>212000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2108200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>199200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>153700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>138400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>152800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>172400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>112900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2081000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1891000</v>
+      </c>
+      <c r="F46" s="3">
         <v>2072000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1672000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1707000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1546000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1493000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1634000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1489000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1894000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1781000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1895000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1710000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1729000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3439500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1474100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1294200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1262100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1444600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1330700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1185000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1164700</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3028,138 +3237,156 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1854000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1834000</v>
+      </c>
+      <c r="F48" s="3">
         <v>1861000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1879000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1940000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1989000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2093000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2207000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2182000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2186000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2261000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2260000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2326000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>615000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>543600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>552000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>560700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>583200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>599400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>562700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>585500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>591500</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3075000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3265000</v>
+      </c>
+      <c r="F49" s="3">
         <v>3342000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>3444000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>3508000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>3490000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>3717000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>3563000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>3467000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>3474000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>3906000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>3769000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>3902000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>3952000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1912900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1955500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1984300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>2083400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>2037400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>525400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>534000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>537800</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3223,8 +3450,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3288,73 +3521,85 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>600000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>490000</v>
+      </c>
+      <c r="F52" s="3">
         <v>405000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>498000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>469000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>456000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>462000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>399000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>395000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>392000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>377000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>469000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>370000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>354000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>132400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>125700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>121600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>130300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>135400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>112900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>108500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3418,73 +3663,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7610000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>7480000</v>
+      </c>
+      <c r="F54" s="3">
         <v>7680000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>7493000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>7624000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>7481000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>7765000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>7803000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>7533000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>7946000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>8325000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>8393000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>8308000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>6650000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>6028400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>4107300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>3960800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>4059000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>4216800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>2531700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>2413000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>2409600</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3508,8 +3765,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3533,398 +3792,436 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>540000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>555000</v>
+      </c>
+      <c r="F57" s="3">
         <v>593000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>491000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>464000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>512000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>495000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>558000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>596000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>428000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>375000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>390000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>355000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>371000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>329000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>290500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>279300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>294100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>290200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>174000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>153400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>176300</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>29000</v>
+      </c>
+      <c r="F58" s="3">
         <v>26000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>40000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>127000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>123000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>169000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>200000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>191000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>167000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1031000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>603000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>514000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>630000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>579400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>255000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>266900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>200000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>100</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
         <v>155800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1037000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>982000</v>
+      </c>
+      <c r="F59" s="3">
         <v>1133000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>989000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>971000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>986000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>930000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>823000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>802000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>806000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>899000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>810000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>799000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>541000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>479000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>452400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>399500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>466200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>431800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>300700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>271800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1614000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1566000</v>
+      </c>
+      <c r="F60" s="3">
         <v>1752000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1520000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1562000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1621000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1594000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1581000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1589000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1401000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2305000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1803000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1668000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1542000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1387400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>997900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>945700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>960300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>722100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>474700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>581000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>565800</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1382000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1131000</v>
+      </c>
+      <c r="F61" s="3">
         <v>976000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1104000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1206000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1219000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1243000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1581000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1577000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2012000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1085000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1796000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1917000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1936000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1954700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>504600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>554200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>674400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>992400</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2236000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2225000</v>
+      </c>
+      <c r="F62" s="3">
         <v>2177000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2269000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2406000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2484000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2573000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2442000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2360000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2365000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2324000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2382000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2395000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>736000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>419200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>421500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>419400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>402800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>422000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>251800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>250700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>248800</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3988,8 +4285,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4053,8 +4356,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4118,73 +4427,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5233000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4921000</v>
+      </c>
+      <c r="F66" s="3">
         <v>4904000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4891000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5172000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5323000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5409000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5604000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5527000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5779000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5716000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>5988000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>5987000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4221000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3764700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1927600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1922900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2041300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2139900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>726700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>832100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>817000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4208,8 +4529,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4273,8 +4596,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4338,8 +4667,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4403,8 +4738,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4468,73 +4809,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5293000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>5092000</v>
+      </c>
+      <c r="F72" s="3">
         <v>5011000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>4689000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>4489000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>4270000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>4453000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>4274000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>4152000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>4332000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>4883000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>4673000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>4600000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>4707000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>4687300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>4487700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>4350100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>4152000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>4107900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>3888500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>3685600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>3560300</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4598,8 +4951,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4663,8 +5022,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4728,73 +5093,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2377000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2559000</v>
+      </c>
+      <c r="F76" s="3">
         <v>2776000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2602000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2452000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2158000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2356000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2199000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2006000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2167000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2609000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2405000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2321000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2429000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2263700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2179700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2037900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2017700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>2076900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1805000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1580900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1592600</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4858,143 +5235,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="F80" s="2">
         <v>44555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44464</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44373</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44282</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44191</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43463</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43099</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42917</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>201000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>81000</v>
+      </c>
+      <c r="F81" s="3">
         <v>322000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>200000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>219000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-183000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>179000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>122000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-180000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-551000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>210000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>73000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>45000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>19400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>199600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>137600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>186400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>44100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>219400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>202900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>125500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5018,73 +5413,81 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E83" s="3">
         <v>47000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
+        <v>47000</v>
+      </c>
+      <c r="G83" s="3">
         <v>49000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>50000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>52000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>52000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>54000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>54000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>61000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>63000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>65000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>60000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>64900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>51500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>52700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>55900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>58700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>54000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>48300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>47600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5148,8 +5551,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5213,8 +5622,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5278,8 +5693,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5343,8 +5764,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5408,73 +5835,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="F89" s="3">
         <v>317000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>192000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>204000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>79000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>408000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>70000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>67000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>107000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>509000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>85000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>158000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-81700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>512000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>57400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>206300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>189200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>544200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>134800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>194300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>147500</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5498,73 +5937,81 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-37000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-25000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-23000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-26000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-26000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-27000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-32000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-59000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-59000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-51000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-54000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-46300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-44900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-49100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-40700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-36600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-25900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-43100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-14800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5628,8 +6075,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5693,73 +6146,85 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>84000</v>
+      </c>
+      <c r="F94" s="3">
         <v>22000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-25000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-23000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-27000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-26000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-39000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-32000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>195000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-58000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-43000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-32000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1909400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-153700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-21200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-40700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-36600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-1400800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-79800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-16200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5783,8 +6248,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5848,8 +6315,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5913,8 +6386,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5978,8 +6457,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6043,199 +6528,223 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-137000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-321000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-287000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-55000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-67000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-382000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-420000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>57000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-397000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-19000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-138000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-20700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1673700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-48700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-153300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-311400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>992100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-153400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-137700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-265400</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-65000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="F101" s="3">
         <v>9000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>20000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-9000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-4000</v>
-      </c>
       <c r="L101" s="3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M101" s="3">
         <v>-4000</v>
       </c>
       <c r="N101" s="3">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="O101" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-1900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-2200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-5500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>4800</v>
-      </c>
-      <c r="T101" s="3">
-        <v>3700</v>
-      </c>
-      <c r="U101" s="3">
-        <v>2900</v>
       </c>
       <c r="V101" s="3">
         <v>3700</v>
       </c>
       <c r="W101" s="3">
+        <v>2900</v>
+      </c>
+      <c r="X101" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Y101" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-92000</v>
+      </c>
+      <c r="F102" s="3">
         <v>27000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-121000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>124000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>5000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-9000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>31000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-385000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>355000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>58000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>19000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-12000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-2013700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>2030600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-14700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>6800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-154000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>139200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-95500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>44100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-139200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CPRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPRI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>CPRI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,319 +665,331 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44464</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44282</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44191</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43463</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43099</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42917</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1412000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1360000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1492000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1609000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1300000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1253000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1197000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1302000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1110000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>451000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1192000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1571000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1442000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1346000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1343700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1438000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1253800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1202500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1179500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1440100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1146600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>952400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1064800</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>461000</v>
+      </c>
+      <c r="E9" s="3">
         <v>459000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>536000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>561000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>416000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>397000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>460000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>454000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>400000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>149000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>561000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>639000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>568000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>512000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>550800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>564800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>490700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>451700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>469700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>556100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>455800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>377700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>445100</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>951000</v>
+      </c>
+      <c r="E10" s="3">
         <v>901000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>956000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1048000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>884000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>856000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>737000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>848000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>710000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>302000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>631000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>932000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>874000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>834000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>792900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>873200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>763100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>750800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>709800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>884000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>690800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>574700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>619700</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1015,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,8 +1087,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1145,150 +1161,159 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>56000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>12000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>41000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>220000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>91000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>29000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>493000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>27000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>110000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>112000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>78600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>25600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>25200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>15600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>64600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>30600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>39600</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>193800</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E15" s="3">
         <v>45000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>47000</v>
       </c>
       <c r="F15" s="3">
         <v>47000</v>
       </c>
       <c r="G15" s="3">
+        <v>47000</v>
+      </c>
+      <c r="H15" s="3">
         <v>49000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>50000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>52000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>53000</v>
       </c>
       <c r="K15" s="3">
         <v>53000</v>
       </c>
       <c r="L15" s="3">
+        <v>53000</v>
+      </c>
+      <c r="M15" s="3">
         <v>54000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>61000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>63000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>65000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>60000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>64900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>51500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>52700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>55900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>58700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>54000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>48300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>47600</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1311,150 +1336,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1160000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1129000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1373000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1278000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1105000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>995000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1336000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1136000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>956000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>613000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1728000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1366000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1367000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1282000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1303300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1148000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1064400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>987300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1092400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1126600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>947500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>803000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1107400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>252000</v>
+      </c>
+      <c r="E18" s="3">
         <v>231000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>119000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>331000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>195000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>258000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-139000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>166000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>154000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-162000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-536000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>205000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>75000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>64000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>40400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>290000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>189400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>215200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>87100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>313500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>199100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>149400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-42600</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1480,150 +1512,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>11000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>7000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>17000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3000</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-41200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-31500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-26900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>40800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>302000</v>
+      </c>
+      <c r="E21" s="3">
         <v>276000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>166000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>389000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>247000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>307000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-80000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>235000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>207000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-104000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-479000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>271000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>137000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>124000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>104100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>300300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>210600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>269000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>145100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>340600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>288200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>198800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1639,204 +1678,213 @@
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3">
         <v>1000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>10000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>17000</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="N22" s="3">
-        <v>3000</v>
       </c>
       <c r="O22" s="3">
         <v>3000</v>
       </c>
       <c r="P22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>13000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>16900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>5900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>7500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>12100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>8300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1100</v>
       </c>
-      <c r="Y22" s="3" t="s">
+      <c r="Z22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>259000</v>
+      </c>
+      <c r="E23" s="3">
         <v>231000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>119000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>342000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>198000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>256000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-136000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>173000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>141000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-175000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-540000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>205000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>69000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>51000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>22300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>241100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>152000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>205600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>74300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>278300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>239100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>150100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-41300</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E24" s="3">
         <v>28000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>81000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>19000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>37000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>46000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-5000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>20000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>12000</v>
-      </c>
-      <c r="N24" s="3">
-        <v>-4000</v>
       </c>
       <c r="O24" s="3">
         <v>-4000</v>
       </c>
       <c r="P24" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="Q24" s="3">
         <v>6000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>41700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>14900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>19400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>21000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>46500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>36400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>24600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-14500</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1906,150 +1954,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E26" s="3">
         <v>203000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>38000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>323000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>200000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>219000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-182000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>178000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>121000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-180000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-552000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>209000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>73000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>45000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>19300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>199400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>137100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>186200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>53300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>231800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>202700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>125500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E27" s="3">
         <v>201000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>38000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>322000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>200000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>219000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-183000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>179000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>122000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-180000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-551000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>210000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>73000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>45000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>19400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>199600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>137600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>186400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>52900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>231800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>202900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>125500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2119,19 +2176,22 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
         <v>43000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -2145,8 +2205,8 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -2157,8 +2217,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2175,14 +2235,14 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>-8800</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-12400</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2190,8 +2250,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,8 +2324,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2332,150 +2398,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-7000</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-11000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-7000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-17000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3000</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>1200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>41200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>31500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>26900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-40800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E33" s="3">
         <v>201000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>81000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>322000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>200000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>219000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-183000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>179000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>122000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-180000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-551000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>210000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>73000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>45000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>19400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>199600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>137600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>186400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>44100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>219400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>202900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>125500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2545,155 +2620,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E35" s="3">
         <v>201000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>81000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>322000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>200000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>219000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-183000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>179000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>122000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-180000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-551000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>210000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>73000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>45000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>19400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>199600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>137600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>186400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>44100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>219400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>202900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>125500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44464</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44282</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44191</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43463</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43099</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42917</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2719,8 +2803,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2746,79 +2831,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>215000</v>
+      </c>
+      <c r="E41" s="3">
         <v>221000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>169000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>261000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>234000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>356000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>232000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>229000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>238000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>207000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>592000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>237000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>179000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>160000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>172000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>264500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>155200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>169900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>163100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>317100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>178200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>273700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>227700</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2888,292 +2977,307 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>453000</v>
+      </c>
+      <c r="E43" s="3">
         <v>403000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>451000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>467000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>374000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>398000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>386000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>381000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>352000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>195000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>308000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>321000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>368000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>310000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>392000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>302100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>352100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>273600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>299900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>297500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>283600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>182300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>277800</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1180000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1265000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1096000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>978000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>866000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>760000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>736000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>789000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>930000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>948000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>827000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>960000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1073000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1016000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>953000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>764700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>767600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>697000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>660700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>677200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>696500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>616100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>549300</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>237000</v>
+      </c>
+      <c r="E45" s="3">
         <v>192000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>175000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>366000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>198000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>193000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>192000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>94000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>114000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>139000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>167000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>263000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>275000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>224000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>212000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2108200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>199200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>153700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>138400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>152800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>172400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>112900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2085000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2081000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1891000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2072000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1672000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1707000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1546000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1493000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1634000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1489000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1894000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1781000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1895000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1710000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1729000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3439500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1474100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1294200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1262100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1444600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1330700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1185000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1164700</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3243,150 +3347,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1803000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1854000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1834000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1861000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1879000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1940000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1989000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2093000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2207000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2182000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2186000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2261000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2260000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2326000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>615000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>543600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>552000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>560700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>583200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>599400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>562700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>585500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>591500</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2890000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3075000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3265000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3342000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3444000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3508000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3490000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3717000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3563000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3467000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3474000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3906000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3769000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3902000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3952000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1912900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1955500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1984300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2083400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2037400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>525400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>534000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>537800</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3456,8 +3569,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3527,79 +3643,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>424000</v>
+      </c>
+      <c r="E52" s="3">
         <v>600000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>490000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>405000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>498000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>469000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>456000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>462000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>399000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>395000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>392000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>377000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>469000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>370000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>354000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>132400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>125700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>121600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>130300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>135400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>112900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>108500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3669,79 +3791,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7202000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7610000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7480000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7680000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7493000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7624000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7481000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7765000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7803000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7533000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7946000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8325000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8393000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8308000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6650000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6028400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4107300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3960800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4059000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4216800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2531700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2413000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2409600</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3767,8 +3895,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3794,434 +3923,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>370000</v>
+      </c>
+      <c r="E57" s="3">
         <v>540000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>555000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>593000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>491000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>464000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>512000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>495000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>558000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>596000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>428000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>375000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>390000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>355000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>371000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>329000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>290500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>279300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>294100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>290200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>174000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>153400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>176300</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E58" s="3">
         <v>37000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>29000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>26000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>40000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>127000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>123000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>169000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>200000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>191000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>167000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1031000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>603000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>514000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>630000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>579400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>255000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>266900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>200000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>100</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
-      </c>
       <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
         <v>155800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>893000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1037000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>982000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1133000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>989000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>971000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>986000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>930000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>823000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>802000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>806000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>899000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>810000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>799000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>541000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>479000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>452400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>399500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>466200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>431800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>300700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>271800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1278000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1614000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1566000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1752000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1520000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1562000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1621000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1594000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1581000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1589000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1401000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2305000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1803000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1668000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1542000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1387400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>997900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>945700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>960300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>722100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>474700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>581000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>565800</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1585000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1382000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1131000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>976000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1104000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1206000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1219000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1243000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1581000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1577000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2012000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1085000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1796000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1917000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1936000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1954700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>504600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>554200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>674400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>992400</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2196000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2236000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2225000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2177000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2269000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2406000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2484000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2573000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2442000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2360000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2365000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2324000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2382000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2395000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>736000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>419200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>421500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>419400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>402800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>422000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>251800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>250700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>248800</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4291,8 +4439,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4362,8 +4513,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4433,79 +4587,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5059000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5233000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4921000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4904000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4891000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5172000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5323000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5409000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5604000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5527000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5779000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5716000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5988000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5987000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4221000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3764700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1927600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1922900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2041300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2139900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>726700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>832100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>817000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4531,8 +4691,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4602,8 +4763,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4673,8 +4837,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4744,8 +4911,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4815,79 +4985,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5517000</v>
+      </c>
+      <c r="E72" s="3">
         <v>5293000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5092000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5011000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4689000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4489000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4270000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4453000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4274000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4152000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4332000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4883000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4673000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4600000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4707000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4687300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4487700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4350100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4152000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4107900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3888500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3685600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>3560300</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4957,8 +5133,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5028,8 +5207,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5099,79 +5281,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2143000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2377000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2559000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2776000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2602000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2452000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2158000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2356000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2199000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2006000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2167000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2609000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2405000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2321000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2429000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2263700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2179700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2037900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2017700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2076900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1805000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1580900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1592600</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5241,155 +5429,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44464</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44282</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44191</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43463</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43099</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42917</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E81" s="3">
         <v>201000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>81000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>322000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>200000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>219000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-183000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>179000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>122000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-180000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-551000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>210000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>73000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>45000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>19400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>199600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>137600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>186400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>44100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>219400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>202900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>125500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5415,79 +5612,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E83" s="3">
         <v>45000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>47000</v>
       </c>
       <c r="F83" s="3">
         <v>47000</v>
       </c>
       <c r="G83" s="3">
+        <v>47000</v>
+      </c>
+      <c r="H83" s="3">
         <v>49000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>50000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>52000</v>
       </c>
       <c r="J83" s="3">
         <v>52000</v>
       </c>
       <c r="K83" s="3">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="L83" s="3">
         <v>54000</v>
       </c>
       <c r="M83" s="3">
+        <v>54000</v>
+      </c>
+      <c r="N83" s="3">
         <v>61000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>63000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>65000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>60000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>64900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>51500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>52700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>55900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>58700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>54000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>48300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>47600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5557,8 +5758,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5628,8 +5832,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5699,8 +5906,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5770,8 +5980,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5841,79 +6054,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-98000</v>
+      </c>
+      <c r="E89" s="3">
         <v>137000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>317000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>192000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>204000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>79000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>408000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>70000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>67000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>107000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>509000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>85000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>158000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-81700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>512000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>57400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>206300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>189200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>544200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>134800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>194300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>147500</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5939,79 +6158,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-36000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-46000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-37000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-25000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-23000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-26000</v>
       </c>
       <c r="J91" s="3">
         <v>-26000</v>
       </c>
       <c r="K91" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="L91" s="3">
         <v>-27000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-32000</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-59000</v>
       </c>
       <c r="N91" s="3">
         <v>-59000</v>
       </c>
       <c r="O91" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="P91" s="3">
         <v>-51000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-54000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-46300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-44900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-49100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-40700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-36600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-25900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-43100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-14800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6081,8 +6304,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6152,79 +6378,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>293000</v>
+      </c>
+      <c r="E94" s="3">
         <v>30000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>84000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>22000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-25000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-23000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-27000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-26000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-39000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-32000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>195000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-58000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-43000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-32000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1909400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-153700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-21200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-40700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-36600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1400800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-79800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-16200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6250,8 +6482,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6321,8 +6554,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6392,8 +6628,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6463,8 +6702,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6534,217 +6776,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-159000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-50000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-137000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-321000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-287000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-55000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-67000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-382000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-420000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>57000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-397000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-19000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-138000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-20700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1673700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-48700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-153300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-311400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>992100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-153400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-137700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-265400</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-65000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-30000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>9000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>20000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-9000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4000</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-1900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-5500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>4800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>3700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>3700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E102" s="3">
         <v>52000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-92000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>27000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-121000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>124000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>31000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-385000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>355000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>58000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>19000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2013700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2030600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-14700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>6800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-154000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>139200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-95500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>44100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-139200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CPRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPRI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>CPRI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,331 +665,344 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44835</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44744</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44653</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44464</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44282</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44191</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43827</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43736</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43554</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43463</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43372</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43099</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42917</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1512000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1412000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1360000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1492000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1609000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1300000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1253000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1197000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1302000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1110000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>451000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1192000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1571000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1442000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1346000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1343700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1438000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1253800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1202500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1179500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1440100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1146600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>952400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1064800</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>507000</v>
+      </c>
+      <c r="E9" s="3">
         <v>461000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>459000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>536000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>561000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>416000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>397000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>460000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>454000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>400000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>149000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>561000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>639000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>568000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>512000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>550800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>564800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>490700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>451700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>469700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>556100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>455800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>377700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>445100</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1005000</v>
+      </c>
+      <c r="E10" s="3">
         <v>951000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>901000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>956000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1048000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>884000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>856000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>737000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>848000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>710000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>302000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>631000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>932000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>874000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>834000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>792900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>873200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>763100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>750800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>709800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>884000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>690800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>574700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>619700</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1029,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1090,8 +1104,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1164,82 +1181,88 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="3">
         <v>11000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>56000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>12000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>41000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>220000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>91000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>29000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>493000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>27000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>110000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>112000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>78600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>25600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>25200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>15600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>64600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>30600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>39600</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>193800</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1247,73 +1270,76 @@
         <v>43000</v>
       </c>
       <c r="E15" s="3">
+        <v>43000</v>
+      </c>
+      <c r="F15" s="3">
         <v>45000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>47000</v>
       </c>
       <c r="G15" s="3">
         <v>47000</v>
       </c>
       <c r="H15" s="3">
+        <v>47000</v>
+      </c>
+      <c r="I15" s="3">
         <v>49000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>50000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>52000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>53000</v>
       </c>
       <c r="L15" s="3">
         <v>53000</v>
       </c>
       <c r="M15" s="3">
+        <v>53000</v>
+      </c>
+      <c r="N15" s="3">
         <v>54000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>61000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>63000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>65000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>60000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>64900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>51500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>52700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>55900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>58700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>54000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>48300</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>47600</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1337,156 +1363,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1276000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1160000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1129000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1373000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1278000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1105000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>995000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1336000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1136000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>956000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>613000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1728000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1366000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1367000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1282000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1303300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1148000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1064400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>987300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1092400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1126600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>947500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>803000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1107400</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>236000</v>
+      </c>
+      <c r="E18" s="3">
         <v>252000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>231000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>119000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>331000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>195000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>258000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-139000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>166000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>154000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-162000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-536000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>205000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>75000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>64000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>40400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>290000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>189400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>215200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>87100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>313500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>199100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>149400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-42600</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1513,156 +1546,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E20" s="3">
         <v>7000</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>11000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>17000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-41200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-31500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-26900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>40800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>271000</v>
+      </c>
+      <c r="E21" s="3">
         <v>302000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>276000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>166000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>389000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>247000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>307000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-80000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>235000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>207000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-104000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-479000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>271000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>137000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>124000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>104100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>300300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>210600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>269000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>145100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>340600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>288200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>198800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1681,210 +1721,219 @@
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3">
         <v>1000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>12000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>17000</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="O22" s="3">
-        <v>3000</v>
       </c>
       <c r="P22" s="3">
         <v>3000</v>
       </c>
       <c r="Q22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="R22" s="3">
         <v>13000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>16900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>7700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>5900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>7500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>12100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>8300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1100</v>
       </c>
-      <c r="Z22" s="3" t="s">
+      <c r="AA22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>228000</v>
+      </c>
+      <c r="E23" s="3">
         <v>259000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>231000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>119000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>342000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>198000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>256000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-136000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>173000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>141000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-175000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-540000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>205000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>69000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>51000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>22300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>241100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>152000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>205600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>74300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>278300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>239100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>150100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-41300</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E24" s="3">
         <v>35000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>28000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>81000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>19000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>37000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>46000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-5000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>20000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>12000</v>
-      </c>
-      <c r="O24" s="3">
-        <v>-4000</v>
       </c>
       <c r="P24" s="3">
         <v>-4000</v>
       </c>
       <c r="Q24" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="R24" s="3">
         <v>6000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>41700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>14900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>19400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>21000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>46500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>36400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>24600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-14500</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1957,156 +2006,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>225000</v>
+      </c>
+      <c r="E26" s="3">
         <v>224000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>203000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>38000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>323000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>200000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>219000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-182000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>178000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>121000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-180000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-552000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>209000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>73000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>45000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>19300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>199400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>137100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>186200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>53300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>231800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>202700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>125500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>225000</v>
+      </c>
+      <c r="E27" s="3">
         <v>224000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>201000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>38000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>322000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>200000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>219000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-183000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>179000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>122000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-180000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-551000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>210000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>73000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>45000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>19400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>199600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>137600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>186400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>52900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>231800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>202900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>125500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2179,8 +2237,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2190,11 +2251,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
         <v>43000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -2208,8 +2269,8 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -2220,8 +2281,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2238,14 +2299,14 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>-8800</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-12400</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2253,8 +2314,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2327,8 +2391,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2401,156 +2468,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7000</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-11000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-17000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3000</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>41200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>31500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>26900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-40800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>225000</v>
+      </c>
+      <c r="E33" s="3">
         <v>224000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>201000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>81000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>322000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>200000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>219000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-183000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>179000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>122000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-180000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-551000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>210000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>73000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>45000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>19400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>199600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>137600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>186400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>44100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>219400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>202900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>125500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2623,161 +2699,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>225000</v>
+      </c>
+      <c r="E35" s="3">
         <v>224000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>201000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>81000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>322000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>200000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>219000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-183000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>179000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>122000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-180000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-551000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>210000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>73000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>45000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>19400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>199600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>137600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>186400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>44100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>219400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>202900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>125500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44835</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44744</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44653</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44464</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44282</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44191</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43827</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43554</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43463</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43372</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43099</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42917</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2804,8 +2889,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2832,82 +2918,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>281000</v>
+      </c>
+      <c r="E41" s="3">
         <v>215000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>221000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>169000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>261000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>234000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>356000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>232000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>229000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>238000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>207000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>592000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>237000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>179000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>160000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>172000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>264500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>155200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>169900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>163100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>317100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>178200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>273700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>227700</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2980,304 +3070,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>381000</v>
+      </c>
+      <c r="E43" s="3">
         <v>453000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>403000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>451000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>467000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>374000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>398000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>386000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>381000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>352000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>195000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>308000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>321000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>368000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>310000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>392000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>302100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>352100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>273600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>299900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>297500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>283600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>182300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>277800</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1188000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1180000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1265000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1096000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>978000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>866000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>760000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>736000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>789000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>930000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>948000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>827000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>960000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1073000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1016000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>953000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>764700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>767600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>697000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>660700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>677200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>696500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>616100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>549300</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>234000</v>
+      </c>
+      <c r="E45" s="3">
         <v>237000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>192000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>175000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>366000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>198000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>193000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>192000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>94000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>114000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>139000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>167000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>263000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>275000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>224000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>212000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2108200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>199200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>153700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>138400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>152800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>172400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>112900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2084000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2085000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2081000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1891000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2072000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1672000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1707000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1546000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1493000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1634000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1489000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1894000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1781000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1895000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1710000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1729000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3439500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1474100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1294200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1262100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1444600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1330700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1185000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1164700</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3350,156 +3455,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1915000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1803000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1854000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1834000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1861000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1879000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1940000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1989000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2093000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2207000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2182000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2186000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2261000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2260000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2326000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>615000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>543600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>552000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>560700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>583200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>599400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>562700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>585500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>591500</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3101000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2890000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3075000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3265000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3342000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3444000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3508000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3490000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3717000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3563000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3467000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3474000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3906000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3769000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3902000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3952000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1912900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1955500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1984300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2083400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2037400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>525400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>534000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>537800</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3572,8 +3686,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3646,82 +3763,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>454000</v>
+      </c>
+      <c r="E52" s="3">
         <v>424000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>600000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>490000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>405000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>498000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>469000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>456000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>462000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>399000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>395000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>392000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>377000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>469000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>370000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>354000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>132400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>125700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>121600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>130300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>135400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>112900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>108500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3794,82 +3917,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7554000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7202000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7610000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7480000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7680000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7493000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7624000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7481000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7765000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7803000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7533000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7946000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8325000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8393000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8308000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6650000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6028400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4107300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3960800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4059000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4216800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2531700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2413000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2409600</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3896,8 +4025,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3924,452 +4054,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>519000</v>
+      </c>
+      <c r="E57" s="3">
         <v>370000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>540000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>555000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>593000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>491000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>464000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>512000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>495000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>558000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>596000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>428000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>375000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>390000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>355000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>371000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>329000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>290500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>279300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>294100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>290200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>174000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>153400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>176300</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E58" s="3">
         <v>15000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>37000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>29000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>26000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>40000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>127000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>123000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>169000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>200000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>191000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>167000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1031000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>603000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>514000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>630000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>579400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>255000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>266900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>200000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>100</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
-      </c>
       <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
         <v>155800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1021000</v>
+      </c>
+      <c r="E59" s="3">
         <v>893000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1037000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>982000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1133000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>989000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>971000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>986000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>930000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>823000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>802000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>806000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>899000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>810000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>799000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>541000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>479000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>452400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>399500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>466200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>431800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>300700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>271800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1559000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1278000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1614000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1566000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1752000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1520000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1562000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1621000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1594000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1581000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1589000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1401000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2305000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1803000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1668000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1542000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1387400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>997900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>945700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>960300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>722100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>474700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>581000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>565800</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1521000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1585000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1382000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1131000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>976000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1104000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1206000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1219000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1243000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1581000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1577000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2012000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1085000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1796000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1917000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1936000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1954700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>504600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>554200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>674400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>992400</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2251000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2196000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2236000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2225000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2177000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2269000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2406000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2484000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2573000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2442000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2360000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2365000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2324000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2382000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2395000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>736000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>419200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>421500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>419400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>402800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>422000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>251800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>250700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>248800</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4442,8 +4591,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4516,8 +4668,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4590,82 +4745,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5331000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5059000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5233000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4921000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4904000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4891000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5172000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5323000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5409000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5604000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5527000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5779000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5716000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5988000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5987000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4221000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3764700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1927600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1922900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2041300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2139900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>726700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>832100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>817000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4692,8 +4853,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4766,8 +4928,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4840,8 +5005,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4914,8 +5082,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4988,82 +5159,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5742000</v>
+      </c>
+      <c r="E72" s="3">
         <v>5517000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5293000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5092000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5011000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4689000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4489000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4270000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4453000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4274000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4152000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4332000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4883000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4673000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4600000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4707000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4687300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4487700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4350100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4152000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4107900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3888500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>3685600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>3560300</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5136,8 +5313,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5210,8 +5390,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5284,82 +5467,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2223000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2143000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2377000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2559000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2776000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2602000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2452000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2158000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2356000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2199000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2006000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2167000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2609000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2405000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2321000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2429000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2263700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2179700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2037900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2017700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2076900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1805000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1580900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1592600</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5432,161 +5621,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44835</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44744</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44653</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44464</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44282</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44191</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43827</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43736</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43554</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43463</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43372</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43099</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42917</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>225000</v>
+      </c>
+      <c r="E81" s="3">
         <v>224000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>201000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>81000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>322000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>200000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>219000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-183000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>179000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>122000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-180000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-551000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>210000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>73000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>45000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>19400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>199600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>137600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>186400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>44100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>219400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>202900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>125500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5613,8 +5811,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5622,73 +5821,76 @@
         <v>43000</v>
       </c>
       <c r="E83" s="3">
+        <v>43000</v>
+      </c>
+      <c r="F83" s="3">
         <v>45000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>47000</v>
       </c>
       <c r="G83" s="3">
         <v>47000</v>
       </c>
       <c r="H83" s="3">
+        <v>47000</v>
+      </c>
+      <c r="I83" s="3">
         <v>49000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>50000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>52000</v>
       </c>
       <c r="K83" s="3">
         <v>52000</v>
       </c>
       <c r="L83" s="3">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="M83" s="3">
         <v>54000</v>
       </c>
       <c r="N83" s="3">
+        <v>54000</v>
+      </c>
+      <c r="O83" s="3">
         <v>61000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>63000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>65000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>60000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>64900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>51500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>52700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>55900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>58700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>54000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>48300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>47600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5761,8 +5963,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5835,8 +6040,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5909,8 +6117,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5983,8 +6194,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6057,82 +6271,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>577000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-98000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>137000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-9000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>317000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>192000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>204000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>79000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>408000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>70000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>67000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>107000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>509000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>85000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>158000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-81700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>512000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>57400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>206300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>189200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>544200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>134800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>194300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>147500</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6159,82 +6379,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-82000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-50000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-36000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-46000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-37000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-25000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-23000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-26000</v>
       </c>
       <c r="K91" s="3">
         <v>-26000</v>
       </c>
       <c r="L91" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="M91" s="3">
         <v>-27000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-32000</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-59000</v>
       </c>
       <c r="O91" s="3">
         <v>-59000</v>
       </c>
       <c r="P91" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-51000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-54000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-46300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-44900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-49100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-40700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-36600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-25900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-43100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-14800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6307,8 +6531,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6381,82 +6608,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-82000</v>
+      </c>
+      <c r="E94" s="3">
         <v>293000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>30000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>84000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>22000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-25000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-23000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-27000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-26000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-39000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-32000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>195000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-58000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-43000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-32000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1909400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-153700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-21200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-40700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-36600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1400800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-79800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-16200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6483,8 +6716,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6557,8 +6791,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6631,8 +6868,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6705,8 +6945,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6779,226 +7022,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-442000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-159000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-50000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-137000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-321000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-287000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-55000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-67000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-382000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-420000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>57000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-397000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-138000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-20700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1673700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-48700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-153300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-311400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>992100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-153400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-137700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-265400</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-41000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-65000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-30000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>9000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>20000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-9000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-1900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-5500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>4800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>3700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>2900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>3700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>52000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-92000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>27000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-121000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>124000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-9000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>31000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-385000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>355000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>58000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>19000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-12000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2013700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2030600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-14700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>6800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-154000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>139200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-95500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>44100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-139200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CPRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPRI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>CPRI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,344 +665,369 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44464</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44282</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44191</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43463</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43099</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42917</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1229000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1335000</v>
+      </c>
+      <c r="F8" s="3">
         <v>1512000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1412000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1360000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1492000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1609000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1300000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1253000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1197000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1302000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1110000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>451000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1192000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1571000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1442000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1346000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1343700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1438000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1253800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1202500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1179500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1440100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1146600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>952400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>1064800</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>417000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>468000</v>
+      </c>
+      <c r="F9" s="3">
         <v>507000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>461000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>459000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>536000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>561000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>416000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>397000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>460000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>454000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>400000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>149000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>561000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>639000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>568000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>512000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>550800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>564800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>490700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>451700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>469700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>556100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>455800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>377700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>445100</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>812000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>867000</v>
+      </c>
+      <c r="F10" s="3">
         <v>1005000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>951000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>901000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>956000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1048000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>884000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>856000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>737000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>848000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>710000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>302000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>631000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>932000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>874000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>834000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>792900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>873200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>763100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>750800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>709800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>884000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>690800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>574700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>619700</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1030,8 +1055,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1107,8 +1134,14 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1184,162 +1217,180 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>129000</v>
+      </c>
+      <c r="F14" s="3">
         <v>3000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>11000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>56000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>12000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>41000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>3000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>220000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>91000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>29000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>8000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>493000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>27000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>110000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>112000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>78600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>25600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>25200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>15600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>64600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>30600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>39600</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>193800</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>48000</v>
+      </c>
+      <c r="F15" s="3">
         <v>43000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>43000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>45000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>47000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>47000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>49000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>50000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>52000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>53000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>53000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>54000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>61000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>63000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>65000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>60000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>64900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>51500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>52700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>55900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>58700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>54000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>48300</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>47600</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1364,162 +1415,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1149000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1375000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1276000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1160000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1129000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1373000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1278000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1105000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>995000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1336000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1136000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>956000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>613000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1728000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1366000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1367000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1282000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1303300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1148000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1064400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>987300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1092400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1126600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>947500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>803000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>1107400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="F18" s="3">
         <v>236000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>252000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>231000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>119000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>331000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>195000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>258000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-139000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>166000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>154000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-162000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-536000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>205000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>75000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>64000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>40400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>290000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>189400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>215200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>87100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>313500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>199100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>149400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-42600</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1547,162 +1612,176 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-8000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>7000</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>11000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>7000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>17000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>4000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-4000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>3000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-3000</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-1200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-41200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-31500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-2100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-26900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>40800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>1800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>95000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="F21" s="3">
         <v>271000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>302000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>276000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>166000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>389000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>247000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>307000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-80000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>235000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>207000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-104000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-479000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>271000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>137000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>124000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>104100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>300300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>210600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>269000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>145100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>340600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>288200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>198800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1724,216 +1803,234 @@
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3">
         <v>1000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>4000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>10000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>12000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>17000</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>3000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>3000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>13000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>16900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>7700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>5900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>7500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>12100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>8300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>800</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>1100</v>
       </c>
-      <c r="AA22" s="3" t="s">
+      <c r="AC22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="F23" s="3">
         <v>228000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>259000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>231000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>119000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>342000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>198000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>256000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-136000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>173000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>141000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-175000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-540000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>205000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>69000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>51000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>22300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>241100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>152000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>205600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>74300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>278300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>239100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>150100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-41300</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="F24" s="3">
         <v>3000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>35000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>28000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>81000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>19000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>37000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>46000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-5000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>20000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>5000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>12000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-4000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>6000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>3000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>41700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>14900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>19400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>21000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>46500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>36400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>24600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>-14500</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2009,162 +2106,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="F26" s="3">
         <v>225000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>224000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>203000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>38000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>323000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>200000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>219000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-182000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>178000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>121000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-180000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-552000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>209000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>73000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>45000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>19300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>199400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>137100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>186200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>53300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>231800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>202700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>125500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="F27" s="3">
         <v>225000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>224000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>201000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>38000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>322000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>200000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>219000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-183000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>179000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>122000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-180000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-551000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>210000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>73000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>45000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>19400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>199600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>137600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>186400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>52900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>231800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>202900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>125500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2240,28 +2355,34 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>43000</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>43000</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -2272,11 +2393,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -2284,11 +2405,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2302,23 +2423,29 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-8800</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Z29" s="3">
         <v>-12400</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2394,8 +2521,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2471,162 +2604,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F32" s="3">
         <v>8000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-7000</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-11000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-7000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-17000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-4000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>4000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>3000</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>1200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>41200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>31500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>2100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>26900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-40800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="F33" s="3">
         <v>225000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>224000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>201000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>81000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>322000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>200000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>219000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-183000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>179000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>122000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-180000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-551000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>210000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>73000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>45000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>19400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>199600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>137600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>186400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>44100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>219400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>202900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>125500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2702,167 +2853,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="F35" s="3">
         <v>225000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>224000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>201000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>81000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>322000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>200000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>219000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-183000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>179000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>122000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-180000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-551000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>210000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>73000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>45000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>19400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>199600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>137600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>186400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>44100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>219400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>202900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>125500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44464</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44282</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44191</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43463</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43099</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42917</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2890,8 +3059,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2919,85 +3090,93 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>249000</v>
+      </c>
+      <c r="F41" s="3">
         <v>281000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>215000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>221000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>169000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>261000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>234000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>356000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>232000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>229000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>238000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>207000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>592000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>237000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>179000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>160000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>172000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>264500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>155200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>169900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>163100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>317100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>178200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>273700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>227700</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3073,316 +3252,346 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>310000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>379000</v>
+      </c>
+      <c r="F43" s="3">
         <v>381000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>453000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>403000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>451000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>467000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>374000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>398000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>386000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>381000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>352000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>195000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>308000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>321000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>368000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>310000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>392000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>302100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>352100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>273600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>299900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>297500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>283600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>182300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>277800</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1166000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1057000</v>
+      </c>
+      <c r="F44" s="3">
         <v>1188000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1180000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1265000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1096000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>978000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>866000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>760000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>736000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>789000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>930000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>948000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>827000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>960000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1073000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1016000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>953000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>764700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>767600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>697000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>660700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>677200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>696500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>616100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>549300</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>206000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>185000</v>
+      </c>
+      <c r="F45" s="3">
         <v>234000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>237000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>192000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>175000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>366000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>198000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>193000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>192000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>94000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>114000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>139000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>167000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>263000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>275000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>224000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>212000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>2108200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>199200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>153700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>138400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>152800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>172400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>112900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1920000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1870000</v>
+      </c>
+      <c r="F46" s="3">
         <v>2084000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2085000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2081000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1891000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2072000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1672000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1707000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1546000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1493000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1634000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1489000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1894000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1781000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1895000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1710000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1729000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>3439500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1474100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1294200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1262100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1444600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1330700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>1185000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>1164700</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3458,162 +3667,180 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1910000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1882000</v>
+      </c>
+      <c r="F48" s="3">
         <v>1915000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1803000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1854000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1834000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1861000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1879000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1940000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1989000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2093000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2207000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2182000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2186000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2261000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2260000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2326000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>615000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>543600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>552000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>560700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>583200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>599400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>562700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>585500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>591500</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3045000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3021000</v>
+      </c>
+      <c r="F49" s="3">
         <v>3101000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2890000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>3075000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>3265000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>3342000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>3444000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>3508000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>3490000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>3717000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>3563000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>3467000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>3474000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>3906000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>3769000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>3902000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>3952000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>1912900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1955500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1984300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>2083400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>2037400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>525400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>534000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>537800</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3689,8 +3916,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3766,85 +3999,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>534000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>522000</v>
+      </c>
+      <c r="F52" s="3">
         <v>454000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>424000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>600000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>490000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>405000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>498000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>469000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>456000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>462000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>399000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>395000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>392000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>377000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>469000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>370000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>354000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>132400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>125700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>121600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>130300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>135400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>112900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>108500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3920,85 +4165,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7409000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>7295000</v>
+      </c>
+      <c r="F54" s="3">
         <v>7554000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>7202000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>7610000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>7480000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>7680000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>7493000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>7624000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>7481000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>7765000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>7803000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>7533000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>7946000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>8325000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>8393000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>8308000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>6650000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>6028400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>4107300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>3960800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>4059000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>4216800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>2531700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>2413000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>2409600</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4026,8 +4283,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4055,470 +4314,508 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>476000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>475000</v>
+      </c>
+      <c r="F57" s="3">
         <v>519000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>370000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>540000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>555000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>593000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>491000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>464000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>512000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>495000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>558000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>596000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>428000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>375000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>390000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>355000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>371000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>329000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>290500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>279300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>294100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>290200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>174000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>153400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>176300</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F58" s="3">
         <v>19000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>15000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>37000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>29000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>26000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>40000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>127000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>123000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>169000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>200000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>191000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>167000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1031000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>603000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>514000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>630000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>579400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>255000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>266900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>200000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>100</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
         <v>155800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>959000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>970000</v>
+      </c>
+      <c r="F59" s="3">
         <v>1021000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>893000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1037000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>982000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1133000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>989000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>971000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>986000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>930000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>823000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>802000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>806000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>899000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>810000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>799000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>541000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>479000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>452400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>399500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>466200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>431800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>300700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>271800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1448000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1450000</v>
+      </c>
+      <c r="F60" s="3">
         <v>1559000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1278000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1614000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1566000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1752000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1520000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1562000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1621000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1594000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1581000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1589000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1401000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2305000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1803000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1668000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1542000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1387400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>997900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>945700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>960300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>722100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>474700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>581000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>565800</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1924000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1822000</v>
+      </c>
+      <c r="F61" s="3">
         <v>1521000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1585000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1382000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1131000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>976000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1104000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1206000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1219000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1243000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1581000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1577000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2012000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1085000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1796000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1917000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1936000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1954700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>504600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>554200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>674400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>992400</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2225000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2174000</v>
+      </c>
+      <c r="F62" s="3">
         <v>2251000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2196000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2236000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2225000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2177000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2269000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2406000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2484000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2573000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2442000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2360000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2365000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>2324000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>2382000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>2395000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>736000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>419200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>421500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>419400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>402800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>422000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>251800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>250700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>248800</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4594,8 +4891,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4671,8 +4974,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4748,85 +5057,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5598000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5447000</v>
+      </c>
+      <c r="F66" s="3">
         <v>5331000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5059000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5233000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4921000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4904000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4891000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5172000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5323000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5409000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>5604000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>5527000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5779000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5716000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>5988000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>5987000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>4221000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3764700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1927600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1922900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>2041300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>2139900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>726700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>832100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>817000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4854,8 +5175,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4931,8 +5254,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5008,8 +5337,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5085,8 +5420,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5162,85 +5503,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5756000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>5708000</v>
+      </c>
+      <c r="F72" s="3">
         <v>5742000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>5517000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>5293000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>5092000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>5011000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>4689000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>4489000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>4270000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>4453000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>4274000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>4152000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>4332000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>4883000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>4673000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>4600000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>4707000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>4687300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>4487700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>4350100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>4152000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>4107900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>3888500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>3685600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>3560300</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5316,8 +5669,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5393,8 +5752,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5470,85 +5835,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1811000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1848000</v>
+      </c>
+      <c r="F76" s="3">
         <v>2223000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2143000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2377000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2559000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2776000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2602000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2452000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2158000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2356000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2199000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2006000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2167000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2609000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2405000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2321000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2429000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>2263700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>2179700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>2037900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>2017700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>2076900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>1805000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>1580900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>1592600</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5624,167 +6001,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44464</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44282</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44191</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43463</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43099</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42917</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="F81" s="3">
         <v>225000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>224000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>201000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>81000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>322000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>200000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>219000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-183000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>179000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>122000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-180000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-551000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>210000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>73000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>45000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>19400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>199600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>137600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>186400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>44100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>219400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>202900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>125500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5812,85 +6207,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>48000</v>
+      </c>
+      <c r="F83" s="3">
         <v>43000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>43000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>45000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>47000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>47000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>49000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>50000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>52000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>52000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>54000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>54000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>61000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>63000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>65000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>60000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>64900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>51500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>52700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>55900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>58700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>54000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>48300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>47600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5966,8 +6369,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6043,8 +6452,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6120,8 +6535,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6197,8 +6618,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6274,85 +6701,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>155000</v>
+      </c>
+      <c r="F89" s="3">
         <v>577000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-98000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>137000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-9000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>317000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>192000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>204000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>79000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>408000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>70000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>67000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>107000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>509000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>85000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>158000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-81700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>512000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>57400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>206300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>189200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>544200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>134800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>194300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>147500</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6380,85 +6819,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-82000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-50000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-36000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-46000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-37000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-25000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-23000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-26000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-26000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-27000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-32000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-59000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-59000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-51000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-54000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-46300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-44900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-49100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-40700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-36600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-25900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-43100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-14800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6534,8 +6981,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6611,85 +7064,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-82000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>293000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>30000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>84000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>22000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-25000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-23000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-27000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-26000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-39000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-32000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>195000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-58000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-43000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-32000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-1909400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-153700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-21200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-40700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-36600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-1400800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-79800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-16200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6717,8 +7182,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6794,8 +7261,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6871,8 +7344,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6948,8 +7427,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7025,235 +7510,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-125000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-442000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-159000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-50000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-137000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-321000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-287000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-55000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-67000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-382000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-420000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>57000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-397000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-19000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-138000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-20700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>1673700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-48700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-153300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-311400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>992100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-153400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-137700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-265400</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>12000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-41000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-65000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-30000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>9000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>20000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-9000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>1000</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-4000</v>
-      </c>
       <c r="P101" s="3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q101" s="3">
         <v>-4000</v>
       </c>
       <c r="R101" s="3">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="S101" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-1900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-1400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-2200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-5500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>4800</v>
-      </c>
-      <c r="X101" s="3">
-        <v>3700</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>2900</v>
       </c>
       <c r="Z101" s="3">
         <v>3700</v>
       </c>
       <c r="AA101" s="3">
+        <v>2900</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>3700</v>
+      </c>
+      <c r="AC101" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="F102" s="3">
         <v>65000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-5000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>52000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-92000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>27000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-121000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>124000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>5000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-9000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>31000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-385000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>355000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>58000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>19000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-12000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-2013700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>2030600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-14700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>6800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-154000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>139200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-95500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>44100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-139200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CPRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPRI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>CPRI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,369 +665,382 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44835</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44653</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44464</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44282</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44191</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43645</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43554</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43463</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43372</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43099</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42917</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1291000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1229000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1335000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1512000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1412000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1360000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1492000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1609000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1300000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1253000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1197000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1302000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1110000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>451000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1192000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1571000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1442000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1346000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1343700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1438000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1253800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1202500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1179500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1440100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1146600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>952400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1064800</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>459000</v>
+      </c>
+      <c r="E9" s="3">
         <v>417000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>468000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>507000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>461000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>459000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>536000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>561000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>416000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>397000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>460000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>454000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>400000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>149000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>561000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>639000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>568000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>512000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>550800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>564800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>490700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>451700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>469700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>556100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>455800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>377700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>445100</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>832000</v>
+      </c>
+      <c r="E10" s="3">
         <v>812000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>867000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1005000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>951000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>901000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>956000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1048000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>884000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>856000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>737000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>848000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>710000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>302000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>631000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>932000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>874000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>834000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>792900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>873200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>763100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>750800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>709800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>884000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>690800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>574700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>619700</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1057,8 +1070,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1140,8 +1154,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1223,174 +1240,183 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-2000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>129000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>11000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>56000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>12000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>41000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>220000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>91000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>29000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>8000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>493000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>27000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>110000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>112000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>78600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>25600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>25200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>15600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>64600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>30600</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>39600</v>
       </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>193800</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E15" s="3">
         <v>45000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>48000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>43000</v>
       </c>
       <c r="G15" s="3">
         <v>43000</v>
       </c>
       <c r="H15" s="3">
+        <v>43000</v>
+      </c>
+      <c r="I15" s="3">
         <v>45000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>47000</v>
       </c>
       <c r="J15" s="3">
         <v>47000</v>
       </c>
       <c r="K15" s="3">
+        <v>47000</v>
+      </c>
+      <c r="L15" s="3">
         <v>49000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>50000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>52000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>53000</v>
       </c>
       <c r="O15" s="3">
         <v>53000</v>
       </c>
       <c r="P15" s="3">
+        <v>53000</v>
+      </c>
+      <c r="Q15" s="3">
         <v>54000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>61000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>63000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>65000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>60000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>64900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>51500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>52700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>55900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>58700</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>54000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>48300</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>47600</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1417,174 +1443,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1191000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1149000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1375000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1276000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1160000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1129000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1373000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1278000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1105000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>995000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1336000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1136000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>956000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>613000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1728000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1366000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1367000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1282000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1303300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1148000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1064400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>987300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1092400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1126600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>947500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>803000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1107400</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E18" s="3">
         <v>80000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-40000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>236000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>252000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>231000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>119000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>331000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>195000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>258000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-139000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>166000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>154000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-162000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-536000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>205000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>75000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>64000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>40400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>290000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>189400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>215200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>87100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>313500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>199100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>149400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-42600</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1614,174 +1647,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-30000</v>
+        <v>1000</v>
       </c>
       <c r="E20" s="3">
         <v>-30000</v>
       </c>
       <c r="F20" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="G20" s="3">
         <v>-8000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>7000</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>11000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>17000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3000</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-1200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-41200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-31500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-26900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>40800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>1800</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>149000</v>
+      </c>
+      <c r="E21" s="3">
         <v>95000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-22000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>271000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>302000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>276000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>166000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>389000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>247000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>307000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-80000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>235000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>207000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-104000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-479000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>271000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>137000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>124000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>104100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>300300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>210600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>269000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>145100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>340600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>288200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>198800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1809,228 +1849,237 @@
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3">
         <v>1000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>12000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>17000</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="R22" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="R22" s="3">
-        <v>3000</v>
       </c>
       <c r="S22" s="3">
         <v>3000</v>
       </c>
       <c r="T22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="U22" s="3">
         <v>13000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>16900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>7700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>5900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>7500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>12100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>8300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>800</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>1100</v>
       </c>
-      <c r="AC22" s="3" t="s">
+      <c r="AD22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E23" s="3">
         <v>50000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-70000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>228000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>259000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>231000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>119000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>342000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>198000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>256000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-136000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>173000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>141000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-175000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-540000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>205000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>69000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>51000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>22300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>241100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>152000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>205600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>74300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>278300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>239100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>150100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-41300</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E24" s="3">
         <v>2000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-37000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>35000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>28000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>81000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>19000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>37000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>46000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-5000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>20000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>12000</v>
-      </c>
-      <c r="R24" s="3">
-        <v>-4000</v>
       </c>
       <c r="S24" s="3">
         <v>-4000</v>
       </c>
       <c r="T24" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="U24" s="3">
         <v>6000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>41700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>14900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>19400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>21000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>46500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>36400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>24600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-14500</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2112,174 +2161,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E26" s="3">
         <v>48000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-33000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>225000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>224000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>203000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>38000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>323000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>200000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>219000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-182000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>178000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>121000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-180000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-552000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>209000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>73000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>45000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>19300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>199400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>137100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>186200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>53300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>231800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>202700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>125500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E27" s="3">
         <v>48000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-34000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>225000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>224000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>201000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>38000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>322000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>219000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-183000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>179000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>122000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-180000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-551000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>210000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>73000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>45000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>19400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>199600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>137600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>186400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>52900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>231800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>202900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>125500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2361,19 +2419,22 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -2381,11 +2442,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>43000</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2399,8 +2460,8 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -2411,8 +2472,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2429,14 +2490,14 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-8800</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-12400</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2444,8 +2505,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2527,8 +2591,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2610,174 +2677,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>30000</v>
+        <v>-1000</v>
       </c>
       <c r="E32" s="3">
         <v>30000</v>
       </c>
       <c r="F32" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G32" s="3">
         <v>8000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-7000</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-11000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-17000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3000</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>1200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>41200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>31500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>26900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-40800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-1800</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E33" s="3">
         <v>48000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-34000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>225000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>224000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>201000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>81000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>322000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>219000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-183000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>179000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>122000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-180000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-551000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>210000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>73000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>45000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>19400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>199600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>137600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>186400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>44100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>219400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>202900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>125500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2859,179 +2935,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E35" s="3">
         <v>48000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-34000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>225000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>224000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>201000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>81000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>322000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>219000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-183000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>179000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>122000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-180000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-551000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>210000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>73000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>45000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>19400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>199600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>137600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>186400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>44100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>219400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>202900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>125500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44835</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44744</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44653</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44464</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44282</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44191</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43645</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43554</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43463</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43372</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43099</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42917</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3061,8 +3146,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3092,8 +3178,9 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3101,82 +3188,85 @@
         <v>238000</v>
       </c>
       <c r="E41" s="3">
+        <v>238000</v>
+      </c>
+      <c r="F41" s="3">
         <v>249000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>281000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>215000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>221000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>169000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>261000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>234000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>356000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>232000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>229000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>238000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>207000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>592000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>237000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>179000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>160000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>172000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>264500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>155200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>169900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>163100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>317100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>178200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>273700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>227700</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3258,340 +3348,355 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>388000</v>
+      </c>
+      <c r="E43" s="3">
         <v>310000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>379000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>381000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>453000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>403000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>451000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>467000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>374000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>398000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>386000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>381000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>352000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>195000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>308000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>321000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>368000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>310000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>392000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>302100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>352100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>273600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>299900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>297500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>283600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>182300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>277800</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1099000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1166000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1057000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1188000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1180000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1265000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1096000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>978000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>866000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>760000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>736000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>789000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>930000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>948000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>827000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>960000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1073000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1016000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>953000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>764700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>767600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>697000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>660700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>677200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>696500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>616100</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>549300</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>265000</v>
+      </c>
+      <c r="E45" s="3">
         <v>206000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>185000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>234000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>237000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>192000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>175000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>366000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>198000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>193000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>192000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>94000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>114000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>139000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>167000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>263000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>275000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>224000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>212000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2108200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>199200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>153700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>138400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>152800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>172400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>112900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1990000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1920000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1870000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2084000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2085000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2081000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1891000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2072000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1672000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1707000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1546000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1493000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1634000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1489000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1894000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1781000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1895000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1710000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1729000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3439500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1474100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1294200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1262100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1444600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1330700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1185000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1164700</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3673,174 +3778,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1849000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1910000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1882000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1915000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1803000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1854000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1834000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1861000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1879000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1940000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1989000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2093000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2207000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2182000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2186000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2261000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2260000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2326000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>615000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>543600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>552000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>560700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>583200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>599400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>562700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>585500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>591500</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2944000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3045000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3021000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3101000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2890000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3075000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3265000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3342000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3444000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3508000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3490000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3717000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3563000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3467000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3474000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3906000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3769000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3902000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3952000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1912900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1955500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1984300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2083400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2037400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>525400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>534000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>537800</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3922,8 +4036,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4005,91 +4122,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>563000</v>
+      </c>
+      <c r="E52" s="3">
         <v>534000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>522000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>454000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>424000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>600000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>490000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>405000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>498000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>469000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>456000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>462000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>399000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>395000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>392000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>377000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>469000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>370000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>354000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>132400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>125700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>121600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>130300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>135400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>112900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>108500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4171,91 +4294,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7346000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7409000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7295000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7554000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7202000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7610000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7480000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7680000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7493000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7624000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7481000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7765000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7803000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7533000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7946000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8325000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8393000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8308000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6650000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6028400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4107300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3960800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4059000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4216800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2531700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2413000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2409600</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4285,8 +4414,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4316,506 +4446,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>355000</v>
+      </c>
+      <c r="E57" s="3">
         <v>476000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>475000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>519000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>370000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>540000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>555000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>593000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>491000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>464000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>512000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>495000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>558000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>596000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>428000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>375000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>390000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>355000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>371000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>329000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>290500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>279300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>294100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>290200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>174000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>153400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>176300</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E58" s="3">
         <v>13000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>19000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>15000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>37000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>29000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>26000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>40000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>127000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>123000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>169000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>200000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>191000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>167000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1031000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>603000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>514000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>630000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>579400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>255000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>266900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>200000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>100</v>
       </c>
-      <c r="AA58" s="3">
-        <v>0</v>
-      </c>
       <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
         <v>155800</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>874000</v>
+      </c>
+      <c r="E59" s="3">
         <v>959000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>970000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1021000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>893000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1037000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>982000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1133000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>989000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>971000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>986000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>930000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>823000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>802000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>806000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>899000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>810000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>799000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>541000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>479000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>452400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>399500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>466200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>431800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>300700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>271800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1244000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1448000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1450000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1559000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1278000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1614000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1566000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1752000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1520000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1562000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1621000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1594000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1581000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1589000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1401000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2305000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1803000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1668000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1542000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1387400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>997900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>945700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>960300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>722100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>474700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>581000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>565800</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2079000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1924000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1822000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1521000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1585000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1382000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1131000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>976000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1104000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1206000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1219000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1243000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1581000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1577000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2012000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1085000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1796000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1917000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1936000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1954700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>504600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>554200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>674400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>992400</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
       <c r="AB61" s="3">
         <v>0</v>
       </c>
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2111000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2225000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2174000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2251000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2196000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2236000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2225000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2177000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2269000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2406000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2484000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2573000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2442000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2360000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2365000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2324000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2382000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2395000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>736000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>419200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>421500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>419400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>402800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>422000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>251800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>250700</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>248800</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4897,8 +5046,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4980,8 +5132,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5063,91 +5218,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5435000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5598000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5447000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5331000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5059000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5233000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4921000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4904000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4891000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5172000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5323000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5409000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5604000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5527000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5779000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5716000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5988000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5987000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4221000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3764700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1927600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1922900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2041300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2139900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>726700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>832100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>817000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5177,8 +5338,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5260,8 +5422,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5343,8 +5508,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5426,8 +5594,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5509,91 +5680,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5846000</v>
+      </c>
+      <c r="E72" s="3">
         <v>5756000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5708000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5742000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5517000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5293000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5092000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5011000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4689000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4489000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4270000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4453000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4274000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4152000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4332000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4883000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4673000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4600000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4707000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4687300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4487700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4350100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>4152000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>4107900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>3888500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>3685600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>3560300</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5675,8 +5852,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5758,8 +5938,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5841,91 +6024,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1911000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1811000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1848000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2223000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2143000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2377000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2559000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2776000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2602000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2452000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2158000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2356000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2199000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2006000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2167000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2609000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2405000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2321000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2429000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2263700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2179700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2037900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2017700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2076900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1805000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1580900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1592600</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6007,179 +6196,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44835</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44744</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44653</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44464</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44282</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44191</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43645</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43554</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43463</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43372</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43099</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42917</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42826</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E81" s="3">
         <v>48000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-34000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>225000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>224000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>201000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>81000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>322000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>219000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-183000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>179000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>122000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-180000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-551000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>210000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>73000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>45000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>19400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>199600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>137600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>186400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>44100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>219400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>202900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>125500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6209,91 +6407,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E83" s="3">
         <v>45000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>48000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>43000</v>
       </c>
       <c r="G83" s="3">
         <v>43000</v>
       </c>
       <c r="H83" s="3">
+        <v>43000</v>
+      </c>
+      <c r="I83" s="3">
         <v>45000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>47000</v>
       </c>
       <c r="J83" s="3">
         <v>47000</v>
       </c>
       <c r="K83" s="3">
+        <v>47000</v>
+      </c>
+      <c r="L83" s="3">
         <v>49000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>50000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>52000</v>
       </c>
       <c r="N83" s="3">
         <v>52000</v>
       </c>
       <c r="O83" s="3">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="P83" s="3">
         <v>54000</v>
       </c>
       <c r="Q83" s="3">
+        <v>54000</v>
+      </c>
+      <c r="R83" s="3">
         <v>61000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>63000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>65000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>60000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>64900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>51500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>52700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>55900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>58700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>54000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>48300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>47600</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6375,8 +6577,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6458,8 +6663,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6541,8 +6749,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6624,8 +6835,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6707,91 +6921,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-137000</v>
+      </c>
+      <c r="E89" s="3">
         <v>40000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>155000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>577000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-98000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>137000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>317000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>192000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>204000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>79000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>408000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>70000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>67000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>107000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>509000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>85000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>158000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-81700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>512000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>57400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>206300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>189200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>544200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>134800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>194300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>147500</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6821,91 +7041,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-50000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-58000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-82000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-50000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-36000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-46000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-37000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23000</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-26000</v>
       </c>
       <c r="N91" s="3">
         <v>-26000</v>
       </c>
       <c r="O91" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="P91" s="3">
         <v>-27000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-32000</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-59000</v>
       </c>
       <c r="R91" s="3">
         <v>-59000</v>
       </c>
       <c r="S91" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="T91" s="3">
         <v>-51000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-54000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-46300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-44900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-49100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-40700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-36600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-25900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-43100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-14800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6987,8 +7211,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7070,91 +7297,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-50000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-58000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-82000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>293000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>30000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>84000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>22000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-25000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-23000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-27000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-26000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-39000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-32000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>195000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-58000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-43000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-32000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1909400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-153700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-21200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-40700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-36600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1400800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-79800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-16200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7184,8 +7417,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7267,8 +7501,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7350,8 +7587,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7433,8 +7673,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7516,253 +7759,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>201000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-125000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-442000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-159000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-50000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-137000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-321000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-287000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-55000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-67000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-382000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-420000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>57000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-397000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-19000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-138000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-20700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1673700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-48700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-153300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-311400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>992100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-153400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-137700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-265400</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3000</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>12000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-41000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-65000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-30000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>9000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>20000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-9000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1000</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-4000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-4000</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-1900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-2200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-5500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>4800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>3700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>2900</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>3700</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-16000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-28000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>65000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>52000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-92000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>27000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-121000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>124000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-9000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>31000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-385000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>355000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>58000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>19000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-12000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2013700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2030600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-14700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>6800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-154000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>139200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-95500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>44100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-139200</v>
       </c>
     </row>
